--- a/test/1. 各院彙整資料/社會科學學院.xlsx
+++ b/test/1. 各院彙整資料/社會科學學院.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36B20B04-76A1-4217-A901-982EAD085C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04D7A724-F432-4F9D-B1A1-6A90D1800FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25936140-C9B0-4C0F-BFD9-F0D0D8E8B96F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B030D00F-2E41-47E3-9D23-5C3EC29E3365}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E36226-294B-411F-970B-458A7E7D9CC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0982886A-249F-4A6A-8AB1-1BDF85F9E7D1}">
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/test/1. 各院彙整資料/社會科學學院.xlsx
+++ b/test/1. 各院彙整資料/社會科學學院.xlsx
@@ -5,34 +5,34 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFE0DE4-538A-4A53-A11C-E2DBB1048858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ED1FB1-3624-4E57-980F-411419E37C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{16123261-669A-4AF3-A2DD-632D94DC5B9B}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{16123261-669A-4AF3-A2DD-632D94DC5B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="2" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="3" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="4" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="5" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="6" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="7" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="8" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="51">
   <si>
     <t>社科院</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>200 社會科學學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>200 社會科學學院</t>
   </si>
   <si>
     <t>202 政治學系</t>
@@ -533,61 +530,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$19</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -595,14 +589,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$19</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -610,7 +604,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-886B-4FB8-9040-61B79B8F1B58}"/>
+              <c16:uniqueId val="{00000000-1756-4F6A-A1EA-595D9AE46100}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -645,61 +639,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$19</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -707,14 +698,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$19</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -722,7 +713,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-886B-4FB8-9040-61B79B8F1B58}"/>
+              <c16:uniqueId val="{00000001-1756-4F6A-A1EA-595D9AE46100}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -757,61 +748,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$19</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -819,14 +807,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$19</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -834,7 +822,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-886B-4FB8-9040-61B79B8F1B58}"/>
+              <c16:uniqueId val="{00000002-1756-4F6A-A1EA-595D9AE46100}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -945,7 +933,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-886B-4FB8-9040-61B79B8F1B58}"/>
+                  <c16:uniqueId val="{00000003-1756-4F6A-A1EA-595D9AE46100}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1017,61 +1005,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$19</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -1079,14 +1064,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$19</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1095,7 +1080,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-886B-4FB8-9040-61B79B8F1B58}"/>
+              <c16:uniqueId val="{00000004-1756-4F6A-A1EA-595D9AE46100}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1376,61 +1361,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$19</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -1438,14 +1420,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$19</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1453,7 +1435,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A2A-43CD-BF99-8A53520E9A7E}"/>
+              <c16:uniqueId val="{00000000-A7E2-4E77-8A9C-9BD733694C7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1488,61 +1470,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$19</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -1550,14 +1529,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$19</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -1565,7 +1544,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7A2A-43CD-BF99-8A53520E9A7E}"/>
+              <c16:uniqueId val="{00000001-A7E2-4E77-8A9C-9BD733694C7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1600,61 +1579,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$19</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -1662,14 +1638,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$19</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -1677,7 +1653,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7A2A-43CD-BF99-8A53520E9A7E}"/>
+              <c16:uniqueId val="{00000002-A7E2-4E77-8A9C-9BD733694C7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1788,7 +1764,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-7A2A-43CD-BF99-8A53520E9A7E}"/>
+                  <c16:uniqueId val="{00000003-A7E2-4E77-8A9C-9BD733694C7D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1860,61 +1836,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$19</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -1922,14 +1895,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$19</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1938,7 +1911,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7A2A-43CD-BF99-8A53520E9A7E}"/>
+              <c16:uniqueId val="{00000004-A7E2-4E77-8A9C-9BD733694C7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2219,61 +2192,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$19</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -2281,14 +2251,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$19</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2296,7 +2266,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-66E1-4385-9098-655D57EAA873}"/>
+              <c16:uniqueId val="{00000000-B13B-42A5-8FD0-2A2763E1F72F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2331,61 +2301,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$19</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -2393,14 +2360,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$19</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2408,7 +2375,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-66E1-4385-9098-655D57EAA873}"/>
+              <c16:uniqueId val="{00000001-B13B-42A5-8FD0-2A2763E1F72F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2443,61 +2410,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$19</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -2505,14 +2469,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$19</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -2520,7 +2484,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-66E1-4385-9098-655D57EAA873}"/>
+              <c16:uniqueId val="{00000002-B13B-42A5-8FD0-2A2763E1F72F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2631,7 +2595,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-66E1-4385-9098-655D57EAA873}"/>
+                  <c16:uniqueId val="{00000003-B13B-42A5-8FD0-2A2763E1F72F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2703,61 +2667,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$19</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -2765,14 +2726,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$19</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2781,7 +2742,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-66E1-4385-9098-655D57EAA873}"/>
+              <c16:uniqueId val="{00000004-B13B-42A5-8FD0-2A2763E1F72F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3062,61 +3023,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$19</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -3124,14 +3082,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$19</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3139,7 +3097,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B378-4163-BD39-49E22D84CD85}"/>
+              <c16:uniqueId val="{00000000-C61B-4F34-9132-C6F2E8A0C9D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3174,61 +3132,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$19</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -3236,14 +3191,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$19</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -3251,7 +3206,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B378-4163-BD39-49E22D84CD85}"/>
+              <c16:uniqueId val="{00000001-C61B-4F34-9132-C6F2E8A0C9D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3286,61 +3241,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$19</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -3348,14 +3300,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$19</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -3363,7 +3315,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B378-4163-BD39-49E22D84CD85}"/>
+              <c16:uniqueId val="{00000002-C61B-4F34-9132-C6F2E8A0C9D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3474,7 +3426,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B378-4163-BD39-49E22D84CD85}"/>
+                  <c16:uniqueId val="{00000003-C61B-4F34-9132-C6F2E8A0C9D3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3546,61 +3498,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$19</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -3608,14 +3557,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$19</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -3624,7 +3573,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B378-4163-BD39-49E22D84CD85}"/>
+              <c16:uniqueId val="{00000004-C61B-4F34-9132-C6F2E8A0C9D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3905,61 +3854,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$19</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -3967,14 +3913,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$19</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3982,7 +3928,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2AA1-4479-B2B1-737FBEE31CB5}"/>
+              <c16:uniqueId val="{00000000-D7B2-4CF9-91FD-228CCAA21F8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4017,61 +3963,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$19</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -4079,14 +4022,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$19</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -4094,7 +4037,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2AA1-4479-B2B1-737FBEE31CB5}"/>
+              <c16:uniqueId val="{00000001-D7B2-4CF9-91FD-228CCAA21F8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4129,61 +4072,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$19</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -4191,14 +4131,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$19</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -4206,7 +4146,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2AA1-4479-B2B1-737FBEE31CB5}"/>
+              <c16:uniqueId val="{00000002-D7B2-4CF9-91FD-228CCAA21F8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4317,7 +4257,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2AA1-4479-B2B1-737FBEE31CB5}"/>
+                  <c16:uniqueId val="{00000003-D7B2-4CF9-91FD-228CCAA21F8F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4389,61 +4329,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$19</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -4451,14 +4388,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$19</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4467,7 +4404,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2AA1-4479-B2B1-737FBEE31CB5}"/>
+              <c16:uniqueId val="{00000004-D7B2-4CF9-91FD-228CCAA21F8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4748,61 +4685,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$19</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -4810,14 +4744,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$19</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4825,7 +4759,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9C1E-45F7-9AA4-E50E60774824}"/>
+              <c16:uniqueId val="{00000000-7F83-4ACE-91CF-84D67E240E29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4860,61 +4794,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$19</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -4922,14 +4853,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$19</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -4937,7 +4868,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9C1E-45F7-9AA4-E50E60774824}"/>
+              <c16:uniqueId val="{00000001-7F83-4ACE-91CF-84D67E240E29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4972,61 +4903,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$19</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -5034,14 +4962,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$19</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -5049,7 +4977,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9C1E-45F7-9AA4-E50E60774824}"/>
+              <c16:uniqueId val="{00000002-7F83-4ACE-91CF-84D67E240E29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5160,7 +5088,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9C1E-45F7-9AA4-E50E60774824}"/>
+                  <c16:uniqueId val="{00000003-7F83-4ACE-91CF-84D67E240E29}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5232,61 +5160,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$19</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -5294,14 +5219,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$19</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -5310,7 +5235,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9C1E-45F7-9AA4-E50E60774824}"/>
+              <c16:uniqueId val="{00000004-7F83-4ACE-91CF-84D67E240E29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5591,61 +5516,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$19</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -5653,14 +5575,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$19</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -5668,7 +5590,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F827-410E-A731-935DB397E641}"/>
+              <c16:uniqueId val="{00000000-EF29-4E7B-BE3D-9571A8EFF952}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5703,61 +5625,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$19</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -5765,14 +5684,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$19</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -5780,7 +5699,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F827-410E-A731-935DB397E641}"/>
+              <c16:uniqueId val="{00000001-EF29-4E7B-BE3D-9571A8EFF952}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5815,61 +5734,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$19</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -5877,14 +5793,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$19</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -5892,7 +5808,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F827-410E-A731-935DB397E641}"/>
+              <c16:uniqueId val="{00000002-EF29-4E7B-BE3D-9571A8EFF952}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6003,7 +5919,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F827-410E-A731-935DB397E641}"/>
+                  <c16:uniqueId val="{00000003-EF29-4E7B-BE3D-9571A8EFF952}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6075,61 +5991,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$19</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>社科院</c:v>
+                  <c:v>政治系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>政治系</c:v>
+                  <c:v>社會系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>社會系</c:v>
+                  <c:v>財政系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>財政系</c:v>
+                  <c:v>公行系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>公行系</c:v>
+                  <c:v>地政系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>地政系</c:v>
+                  <c:v>經濟系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>經濟系</c:v>
+                  <c:v>民族系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>民族系</c:v>
+                  <c:v>國發所</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>國發所</c:v>
+                  <c:v>勞工所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>勞工所</c:v>
+                  <c:v>社工所</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>社工所</c:v>
+                  <c:v>亞太博</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>亞太博</c:v>
+                  <c:v>行管碩</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>行管碩</c:v>
+                  <c:v>地碩在</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>地碩在</c:v>
+                  <c:v>亞太碩</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>亞太碩</c:v>
+                  <c:v>應社碩</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
@@ -6137,14 +6050,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$19</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -6153,7 +6066,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F827-410E-A731-935DB397E641}"/>
+              <c16:uniqueId val="{00000004-EF29-4E7B-BE3D-9571A8EFF952}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6382,7 +6295,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE327C3B-1C81-45A6-A634-9BD55E867E82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4599A588-D23B-4F80-B1A4-F8D4AA9449F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6415,7 +6328,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A8108D-F5F0-45BC-B6D2-8C8CB314CBAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13EC57BE-54A5-4F13-ACB5-A7AAB98841BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6448,7 +6361,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A9B8CD-6A89-4BA7-81B0-611F2B1CB724}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C7988F0-C86D-441E-A359-B5A15DF15329}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6481,7 +6394,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8453D914-ACBD-4E9C-BB91-318C1E235C61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9A0B4E-D13A-45C9-98E6-9206D95A405A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6514,7 +6427,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9F5E36-E959-481B-9AD4-173DF0AC9728}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE53BF1D-5DF3-45B8-A5CB-9090D114CE61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6547,7 +6460,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F521B6-77A2-4CD3-8260-71F2281D1982}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BDDB41-E71F-4FC7-95E9-EE88D255DA85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6580,7 +6493,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2ED42EA-F6AF-4975-9C45-89C1B8634B05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB59E46-2A39-4D2C-A366-BD3713C420C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6630,7 +6543,7 @@
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>院均值</v>
+            <v>科系1</v>
           </cell>
           <cell r="C2">
             <v>0.06</v>
@@ -6647,7 +6560,7 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>測試二</v>
+            <v>院均值</v>
           </cell>
           <cell r="C3">
             <v>0.05</v>
@@ -7069,25 +6982,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{A9640925-3B73-47B7-9F83-4EA9EC4F51EB}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{C440908E-C9E2-48C1-9A78-064925A2354F}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{7C3E245B-3770-492F-A486-E86BC40AABE0}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{0705CE24-94A3-4FD3-8BDF-AC016333847E}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{ECD20831-F77B-4D4A-957E-7A0F05589413}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{5BBD094E-1C29-4C30-B499-428B87C0E4AE}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{E7BECF90-91CC-4D8C-BF39-B6112F5CA663}"/>
+    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{B40EE757-46CB-47ED-95CF-3B416E02F049}"/>
+    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{36047E27-A0C4-49E8-80B6-631D50E9880F}"/>
+    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{305821C0-443B-4633-836A-474C2F7DB924}"/>
+    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{FEAC5A20-7903-4320-9BA7-1CA72E652D3C}"/>
+    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{D2A397C9-34D7-4129-A6D0-4142A0E954B4}"/>
+    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{13B8B41D-4CB2-4B3F-B99E-32971C12E5BF}"/>
+    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{05FE48D3-18FC-4AD4-8E55-68F524A454E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621BA15-BA50-4980-8399-0B8DF4DA64BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A51098-73AA-4129-B6ED-BD142276FFB1}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7142,16 +7055,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -7164,7 +7075,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -7177,7 +7088,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -7190,7 +7101,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -7203,7 +7114,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -7216,7 +7127,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -7229,7 +7140,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -7242,7 +7153,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -7255,7 +7166,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -7268,7 +7179,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -7281,7 +7192,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -7294,7 +7205,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -7307,7 +7218,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -7320,7 +7231,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -7333,7 +7244,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -7346,39 +7257,28 @@
         <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="C18" s="10">
         <v>0.05</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D18" s="10">
         <v>0.04</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E18" s="10">
         <v>0.01</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F18" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G18" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G19" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
-      <sortCondition descending="1" ref="G1:G19"/>
+  <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
+      <sortCondition descending="1" ref="G1:G18"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7389,12 +7289,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9185BF3A-276C-4863-8C27-E3685312A5D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B466B8BF-6AA1-476B-A2F7-E5AEC02CDE12}">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7449,16 +7349,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -7471,7 +7369,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -7484,7 +7382,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -7497,7 +7395,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -7510,7 +7408,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -7523,7 +7421,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -7536,7 +7434,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -7549,7 +7447,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -7562,7 +7460,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -7575,7 +7473,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -7588,7 +7486,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -7601,7 +7499,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -7614,7 +7512,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -7627,7 +7525,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -7640,7 +7538,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -7653,39 +7551,28 @@
         <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="C18" s="10">
         <v>0.05</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D18" s="10">
         <v>0.04</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E18" s="10">
         <v>0.01</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F18" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G18" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G19" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
-      <sortCondition descending="1" ref="G1:G19"/>
+  <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
+      <sortCondition descending="1" ref="G1:G18"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7696,12 +7583,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86580A43-3EEB-414B-9B32-5C40D15613CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA0D890-DCD4-49ED-BAF0-D84761CBFEEE}">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7756,16 +7643,14 @@
       <c r="F2" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -7778,7 +7663,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -7791,7 +7676,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -7804,7 +7689,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -7817,7 +7702,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -7830,7 +7715,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -7843,7 +7728,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -7856,7 +7741,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -7869,7 +7754,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -7882,7 +7767,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -7895,7 +7780,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -7908,7 +7793,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -7921,7 +7806,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -7934,7 +7819,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -7947,7 +7832,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -7960,39 +7845,28 @@
         <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="C18" s="11">
         <v>0.05</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D18" s="11">
         <v>0.04</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E18" s="11">
         <v>0.01</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F18" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G18" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G19" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
-      <sortCondition descending="1" ref="G1:G19"/>
+  <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
+      <sortCondition descending="1" ref="G1:G18"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8003,12 +7877,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB6E772-AB63-43D6-A68D-7F8A3504E714}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030D14A5-2F22-499D-9077-925621168D52}">
   <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8063,16 +7937,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -8085,7 +7957,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -8098,7 +7970,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -8111,7 +7983,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -8124,7 +7996,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -8137,7 +8009,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -8150,7 +8022,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -8163,7 +8035,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -8176,7 +8048,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -8189,7 +8061,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -8202,7 +8074,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -8215,7 +8087,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -8228,7 +8100,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -8241,7 +8113,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -8254,7 +8126,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -8267,39 +8139,28 @@
         <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="C18" s="12">
         <v>0.05</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D18" s="12">
         <v>0.04</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E18" s="12">
         <v>0.01</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F18" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G18" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G19" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
-      <sortCondition descending="1" ref="G1:G19"/>
+  <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
+      <sortCondition descending="1" ref="G1:G18"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8310,12 +8171,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B882C2-B8AA-4F03-A156-9AE89EF3CC91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40316B57-51F5-4880-BEE1-5D4808FCA0A8}">
   <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8370,16 +8231,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -8392,7 +8251,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -8405,7 +8264,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -8418,7 +8277,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -8431,7 +8290,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -8444,7 +8303,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -8457,7 +8316,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -8470,7 +8329,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -8483,7 +8342,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -8496,7 +8355,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -8509,7 +8368,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -8522,7 +8381,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -8535,7 +8394,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -8548,7 +8407,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -8561,7 +8420,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -8574,39 +8433,28 @@
         <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="C18" s="12">
         <v>0.05</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D18" s="12">
         <v>0.04</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E18" s="12">
         <v>0.01</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F18" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G18" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G19" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
-      <sortCondition descending="1" ref="G1:G19"/>
+  <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
+      <sortCondition descending="1" ref="G1:G18"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8617,12 +8465,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B83D05-C40A-466F-BA43-70104C0583D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBCBB56-F3C8-4808-8EC0-78508C3A41A0}">
   <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8663,7 +8511,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -8677,16 +8525,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -8699,7 +8545,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -8712,7 +8558,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -8725,7 +8571,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -8738,7 +8584,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -8751,7 +8597,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -8764,7 +8610,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -8777,7 +8623,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -8790,7 +8636,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -8803,7 +8649,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -8816,7 +8662,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -8829,7 +8675,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -8842,7 +8688,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -8855,7 +8701,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -8868,7 +8714,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -8881,39 +8727,28 @@
         <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="C18" s="12">
         <v>0.05</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D18" s="12">
         <v>0.04</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E18" s="12">
         <v>0.01</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F18" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G18" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G19" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
-      <sortCondition descending="1" ref="G1:G19"/>
+  <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
+      <sortCondition descending="1" ref="G1:G18"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8924,12 +8759,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14153D9-173D-4BC9-8D47-C52E9FF6A272}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EB9CE8-4ED9-42D4-AF98-880B1F31F370}">
   <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8970,7 +8805,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -8984,16 +8819,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -9006,7 +8839,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -9019,7 +8852,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -9032,7 +8865,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -9045,7 +8878,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -9058,7 +8891,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -9071,7 +8904,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -9084,7 +8917,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -9097,7 +8930,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -9110,7 +8943,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -9123,7 +8956,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -9136,7 +8969,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -9149,7 +8982,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -9162,7 +8995,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -9175,7 +9008,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -9188,39 +9021,28 @@
         <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="C18" s="12">
         <v>0.05</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D18" s="12">
         <v>0.04</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E18" s="12">
         <v>0.01</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F18" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G18" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G19" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
-      <sortCondition descending="1" ref="G1:G19"/>
+  <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
+      <sortCondition descending="1" ref="G1:G18"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/社會科學學院.xlsx
+++ b/test/1. 各院彙整資料/社會科學學院.xlsx
@@ -8,23 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ED1FB1-3624-4E57-980F-411419E37C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1CBFDA-5284-4B2F-B070-EFA5E7B9871D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{16123261-669A-4AF3-A2DD-632D94DC5B9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{16123261-669A-4AF3-A2DD-632D94DC5B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$18</definedName>
@@ -53,10 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="51">
-  <si>
-    <t>社科院</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="60">
   <si>
     <t>政治系</t>
   </si>
@@ -104,27 +98,6 @@
   </si>
   <si>
     <t>原專班</t>
-  </si>
-  <si>
-    <t>1.1.1.1 學士班繁星推薦入學錄取率</t>
-  </si>
-  <si>
-    <t>1.1.3.4 博士班招收國內重點大學畢業生比率</t>
-  </si>
-  <si>
-    <t>1.4.1.1 學士班獲獎助學金平均金額</t>
-  </si>
-  <si>
-    <t>1.7.1.4 碩士班平均修業年限</t>
-  </si>
-  <si>
-    <t>2.1.1.2 平均碩博士班修課學生人數</t>
-  </si>
-  <si>
-    <t>2.3.1.2 各系所教師兼任本校二級學術行政主管人次</t>
-  </si>
-  <si>
-    <t>3.2.1.1 舉辦國際學術研討會數</t>
   </si>
   <si>
     <t>科系</t>
@@ -216,6 +189,57 @@
   <si>
     <t>院加總</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>社科院</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>學士班繁星推薦入學錄取率</t>
+  </si>
+  <si>
+    <t>1.1.3.4</t>
+  </si>
+  <si>
+    <t>博士班招收國內重點大學畢業生比率</t>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
+  </si>
+  <si>
+    <t>學士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.7.1.4</t>
+  </si>
+  <si>
+    <t>碩士班平均修業年限</t>
+  </si>
+  <si>
+    <t>2.1.1.2</t>
+  </si>
+  <si>
+    <t>平均碩博士班修課學生人數</t>
+  </si>
+  <si>
+    <t>2.3.1.2</t>
+  </si>
+  <si>
+    <t>各系所教師兼任本校二級學術行政主管人次</t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t>舉辦國際學術研討會數</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>無資料。</t>
   </si>
 </sst>
 </file>
@@ -532,57 +556,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -592,19 +568,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1756-4F6A-A1EA-595D9AE46100}"/>
+              <c16:uniqueId val="{00000000-6177-485B-937F-EC4E6533D8D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -641,57 +614,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -701,19 +626,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1756-4F6A-A1EA-595D9AE46100}"/>
+              <c16:uniqueId val="{00000001-6177-485B-937F-EC4E6533D8D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -750,57 +672,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -810,19 +684,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1756-4F6A-A1EA-595D9AE46100}"/>
+              <c16:uniqueId val="{00000002-6177-485B-937F-EC4E6533D8D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -886,7 +757,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -933,7 +808,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1756-4F6A-A1EA-595D9AE46100}"/>
+                  <c16:uniqueId val="{00000003-6177-485B-937F-EC4E6533D8D0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -942,7 +817,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1007,57 +886,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1067,12 +898,9 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,7 +908,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1756-4F6A-A1EA-595D9AE46100}"/>
+              <c16:uniqueId val="{00000004-6177-485B-937F-EC4E6533D8D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1363,57 +1191,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1423,19 +1203,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A7E2-4E77-8A9C-9BD733694C7D}"/>
+              <c16:uniqueId val="{00000000-83DC-4FD5-AEA2-6DB57EB1A54A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1472,57 +1249,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1532,19 +1261,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A7E2-4E77-8A9C-9BD733694C7D}"/>
+              <c16:uniqueId val="{00000001-83DC-4FD5-AEA2-6DB57EB1A54A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1581,57 +1307,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1641,19 +1319,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A7E2-4E77-8A9C-9BD733694C7D}"/>
+              <c16:uniqueId val="{00000002-83DC-4FD5-AEA2-6DB57EB1A54A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1717,7 +1392,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1764,7 +1443,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A7E2-4E77-8A9C-9BD733694C7D}"/>
+                  <c16:uniqueId val="{00000003-83DC-4FD5-AEA2-6DB57EB1A54A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1773,7 +1452,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1838,57 +1521,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1898,12 +1533,9 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,7 +1543,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A7E2-4E77-8A9C-9BD733694C7D}"/>
+              <c16:uniqueId val="{00000004-83DC-4FD5-AEA2-6DB57EB1A54A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2194,57 +1826,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2254,19 +1838,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B13B-42A5-8FD0-2A2763E1F72F}"/>
+              <c16:uniqueId val="{00000000-1EF3-47C8-8E40-0FC839E78AEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2303,57 +1884,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2363,19 +1896,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B13B-42A5-8FD0-2A2763E1F72F}"/>
+              <c16:uniqueId val="{00000001-1EF3-47C8-8E40-0FC839E78AEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2412,57 +1942,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2472,19 +1954,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B13B-42A5-8FD0-2A2763E1F72F}"/>
+              <c16:uniqueId val="{00000002-1EF3-47C8-8E40-0FC839E78AEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2548,7 +2027,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2595,7 +2078,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B13B-42A5-8FD0-2A2763E1F72F}"/>
+                  <c16:uniqueId val="{00000003-1EF3-47C8-8E40-0FC839E78AEF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2604,7 +2087,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2669,57 +2156,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2729,12 +2168,9 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2742,7 +2178,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B13B-42A5-8FD0-2A2763E1F72F}"/>
+              <c16:uniqueId val="{00000004-1EF3-47C8-8E40-0FC839E78AEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3025,57 +2461,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3085,19 +2473,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C61B-4F34-9132-C6F2E8A0C9D3}"/>
+              <c16:uniqueId val="{00000000-735C-4136-B667-0DA542B7D599}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3134,57 +2519,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3194,19 +2531,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C61B-4F34-9132-C6F2E8A0C9D3}"/>
+              <c16:uniqueId val="{00000001-735C-4136-B667-0DA542B7D599}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3243,57 +2577,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3303,19 +2589,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C61B-4F34-9132-C6F2E8A0C9D3}"/>
+              <c16:uniqueId val="{00000002-735C-4136-B667-0DA542B7D599}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3379,7 +2662,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3426,7 +2713,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C61B-4F34-9132-C6F2E8A0C9D3}"/>
+                  <c16:uniqueId val="{00000003-735C-4136-B667-0DA542B7D599}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3435,7 +2722,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3500,57 +2791,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3560,12 +2803,9 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3573,7 +2813,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C61B-4F34-9132-C6F2E8A0C9D3}"/>
+              <c16:uniqueId val="{00000004-735C-4136-B667-0DA542B7D599}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3856,57 +3096,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3916,19 +3108,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D7B2-4CF9-91FD-228CCAA21F8F}"/>
+              <c16:uniqueId val="{00000000-7D86-42E2-8043-EE254D180FE6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3965,57 +3154,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4025,19 +3166,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D7B2-4CF9-91FD-228CCAA21F8F}"/>
+              <c16:uniqueId val="{00000001-7D86-42E2-8043-EE254D180FE6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4074,57 +3212,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4134,19 +3224,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D7B2-4CF9-91FD-228CCAA21F8F}"/>
+              <c16:uniqueId val="{00000002-7D86-42E2-8043-EE254D180FE6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4210,7 +3297,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4257,7 +3348,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D7B2-4CF9-91FD-228CCAA21F8F}"/>
+                  <c16:uniqueId val="{00000003-7D86-42E2-8043-EE254D180FE6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4266,7 +3357,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4331,57 +3426,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4391,12 +3438,9 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4404,7 +3448,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D7B2-4CF9-91FD-228CCAA21F8F}"/>
+              <c16:uniqueId val="{00000004-7D86-42E2-8043-EE254D180FE6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4687,57 +3731,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4747,19 +3743,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F83-4ACE-91CF-84D67E240E29}"/>
+              <c16:uniqueId val="{00000000-5CBA-4CB6-87B5-2E115035EDDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4796,57 +3789,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4856,19 +3801,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7F83-4ACE-91CF-84D67E240E29}"/>
+              <c16:uniqueId val="{00000001-5CBA-4CB6-87B5-2E115035EDDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4905,57 +3847,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4965,19 +3859,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7F83-4ACE-91CF-84D67E240E29}"/>
+              <c16:uniqueId val="{00000002-5CBA-4CB6-87B5-2E115035EDDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5041,7 +3932,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5088,7 +3983,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-7F83-4ACE-91CF-84D67E240E29}"/>
+                  <c16:uniqueId val="{00000003-5CBA-4CB6-87B5-2E115035EDDC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5097,7 +3992,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5162,57 +4061,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5222,12 +4073,9 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5235,7 +4083,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7F83-4ACE-91CF-84D67E240E29}"/>
+              <c16:uniqueId val="{00000004-5CBA-4CB6-87B5-2E115035EDDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5518,57 +4366,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5578,19 +4378,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EF29-4E7B-BE3D-9571A8EFF952}"/>
+              <c16:uniqueId val="{00000000-5188-4D48-8843-F6199B48F666}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5627,57 +4424,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5687,19 +4436,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EF29-4E7B-BE3D-9571A8EFF952}"/>
+              <c16:uniqueId val="{00000001-5188-4D48-8843-F6199B48F666}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5736,57 +4482,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5796,19 +4494,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EF29-4E7B-BE3D-9571A8EFF952}"/>
+              <c16:uniqueId val="{00000002-5188-4D48-8843-F6199B48F666}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5872,7 +4567,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5919,7 +4618,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-EF29-4E7B-BE3D-9571A8EFF952}"/>
+                  <c16:uniqueId val="{00000003-5188-4D48-8843-F6199B48F666}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5928,7 +4627,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5993,57 +4696,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>政治系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>社會系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>財政系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>公行系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>地政系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>經濟系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>民族系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國發所</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>勞工所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>社工所</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>亞太博</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>行管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>地碩在</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>亞太碩</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>應社碩</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>原專班</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6053,12 +4708,9 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6066,7 +4718,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EF29-4E7B-BE3D-9571A8EFF952}"/>
+              <c16:uniqueId val="{00000004-5188-4D48-8843-F6199B48F666}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6295,7 +4947,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4599A588-D23B-4F80-B1A4-F8D4AA9449F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE11966-7E1F-492A-9F2B-7B68F48DBC25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6328,7 +4980,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13EC57BE-54A5-4F13-ACB5-A7AAB98841BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F4191A-778E-46AE-869E-66ECAD8EEE6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6361,7 +5013,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C7988F0-C86D-441E-A359-B5A15DF15329}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C39E0EC-4D7D-4A22-9B57-54528DFD26B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6394,7 +5046,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9A0B4E-D13A-45C9-98E6-9206D95A405A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F9DC9B-EE39-447B-87FB-ECAB80724AE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6427,7 +5079,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE53BF1D-5DF3-45B8-A5CB-9090D114CE61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A89A62-9D66-46E9-A4F0-5A9260D719C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6460,7 +5112,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BDDB41-E71F-4FC7-95E9-EE88D255DA85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DF1BE8-0081-48C6-953F-80A6C8274D31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6493,7 +5145,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB59E46-2A39-4D2C-A366-BD3713C420C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13019A56-23FA-4CA5-9649-3DA9B2C7F6B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6514,72 +5166,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="主控台"/>
-      <sheetName val="template"/>
-      <sheetName val="test1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>三年均值</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>110年</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>109年</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>108年</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>科系1</v>
-          </cell>
-          <cell r="C2">
-            <v>0.06</v>
-          </cell>
-          <cell r="D2">
-            <v>0.06</v>
-          </cell>
-          <cell r="E2">
-            <v>0.03</v>
-          </cell>
-          <cell r="F2">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>院均值</v>
-          </cell>
-          <cell r="C3">
-            <v>0.05</v>
-          </cell>
-          <cell r="D3">
-            <v>0.04</v>
-          </cell>
-          <cell r="E3">
-            <v>0.01</v>
-          </cell>
-          <cell r="F3">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6877,130 +5463,225 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{92F772BD-E2FE-40A0-8BF6-41C064FE4262}">
+  <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D422FF4D-9442-4AF9-BC11-866E732F61EF}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="7.625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{B40EE757-46CB-47ED-95CF-3B416E02F049}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{36047E27-A0C4-49E8-80B6-631D50E9880F}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{305821C0-443B-4633-836A-474C2F7DB924}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{FEAC5A20-7903-4320-9BA7-1CA72E652D3C}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{D2A397C9-34D7-4129-A6D0-4142A0E954B4}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{13B8B41D-4CB2-4B3F-B99E-32971C12E5BF}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{05FE48D3-18FC-4AD4-8E55-68F524A454E0}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{B6719BBF-E6E0-4D8E-8452-AFB6F0463E3F}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{C8286138-1D25-4235-8E23-12CA94FB195F}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{B92DD0C3-68B2-4703-93DD-5398AC362BDD}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{07039133-128C-4413-9203-54D8ED61079C}"/>
+    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{422ACF29-9AE8-45DE-BAF2-745ACE30698E}"/>
+    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{AC0C66A7-0058-411D-B5FF-5E428F584D76}"/>
+    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{CD88BDD6-250F-45CE-9F43-08CBC642C457}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A51098-73AA-4129-B6ED-BD142276FFB1}">
-  <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36364312-1983-40B6-BA8A-DA7E949540A9}">
+  <sheetPr codeName="工作表1" filterMode="1"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7013,274 +5694,437 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F18" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G18" s="9">
-        <v>999</v>
+      <c r="C18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
       <sortCondition descending="1" ref="G1:G18"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7289,12 +6133,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B466B8BF-6AA1-476B-A2F7-E5AEC02CDE12}">
-  <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7270ACAC-B00E-4D08-9DC6-D9EE363B0CBB}">
+  <sheetPr codeName="工作表2" filterMode="1"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7307,274 +6151,437 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F18" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G18" s="9">
-        <v>999</v>
+      <c r="C18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
       <sortCondition descending="1" ref="G1:G18"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7583,12 +6590,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA0D890-DCD4-49ED-BAF0-D84761CBFEEE}">
-  <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72A2C8D-4531-410D-9784-4CF2A9E1F84B}">
+  <sheetPr codeName="工作表3" filterMode="1"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7601,274 +6608,437 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F18" s="11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G18" s="9">
-        <v>999</v>
+      <c r="C18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
       <sortCondition descending="1" ref="G1:G18"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7877,12 +7047,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030D14A5-2F22-499D-9077-925621168D52}">
-  <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573B09FD-8CF0-4595-873C-ECC761CDFC8D}">
+  <sheetPr codeName="工作表4" filterMode="1"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7895,274 +7065,437 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F18" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G18" s="9">
-        <v>999</v>
+      <c r="C18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
       <sortCondition descending="1" ref="G1:G18"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8171,12 +7504,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40316B57-51F5-4880-BEE1-5D4808FCA0A8}">
-  <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B33D6F7-3D2C-46D5-96C8-6A8E422F71C2}">
+  <sheetPr codeName="工作表5" filterMode="1"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8189,274 +7522,437 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F18" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G18" s="9">
-        <v>999</v>
+      <c r="C18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
       <sortCondition descending="1" ref="G1:G18"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8465,12 +7961,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBCBB56-F3C8-4808-8EC0-78508C3A41A0}">
-  <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E94E9C-F80D-45FA-A83C-216DC3D44801}">
+  <sheetPr codeName="工作表6" filterMode="1"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8483,274 +7979,437 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F18" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G18" s="9">
-        <v>999</v>
+      <c r="C18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
       <sortCondition descending="1" ref="G1:G18"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8759,12 +8418,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EB9CE8-4ED9-42D4-AF98-880B1F31F370}">
-  <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122309C7-DA40-4A4A-9FA6-293578B550B7}">
+  <sheetPr codeName="工作表7" filterMode="1"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8777,274 +8436,437 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F18" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G18" s="9">
-        <v>999</v>
+      <c r="C18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
       <sortCondition descending="1" ref="G1:G18"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test/1. 各院彙整資料/社會科學學院.xlsx
+++ b/test/1. 各院彙整資料/社會科學學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1CBFDA-5284-4B2F-B070-EFA5E7B9871D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711EFE13-BEBD-4613-A380-483D4429E96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{16123261-669A-4AF3-A2DD-632D94DC5B9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{99D4858D-58E9-4A37-8415-CB14913F8BEB}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$18</definedName>
@@ -50,148 +50,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="70">
+  <si>
+    <t>200 社會科學學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>社科院</t>
+  </si>
+  <si>
+    <t>202 政治學系</t>
+  </si>
   <si>
     <t>政治系</t>
+  </si>
+  <si>
+    <t>204 社會學系</t>
   </si>
   <si>
     <t>社會系</t>
   </si>
   <si>
+    <t>205 財政學系</t>
+  </si>
+  <si>
     <t>財政系</t>
+  </si>
+  <si>
+    <t>206 公共行政學系</t>
   </si>
   <si>
     <t>公行系</t>
   </si>
   <si>
+    <t>207 地政學系</t>
+  </si>
+  <si>
     <t>地政系</t>
+  </si>
+  <si>
+    <t>208 經濟學系</t>
   </si>
   <si>
     <t>經濟系</t>
   </si>
   <si>
+    <t>209 民族學系</t>
+  </si>
+  <si>
     <t>民族系</t>
+  </si>
+  <si>
+    <t>261 國家發展研究所</t>
   </si>
   <si>
     <t>國發所</t>
   </si>
   <si>
+    <t>262 勞工研究所</t>
+  </si>
+  <si>
     <t>勞工所</t>
+  </si>
+  <si>
+    <t>264 社會工作研究所</t>
   </si>
   <si>
     <t>社工所</t>
   </si>
   <si>
+    <t>265 亞太研究英語博士學位學程</t>
+  </si>
+  <si>
     <t>亞太博</t>
+  </si>
+  <si>
+    <t>921 行政管理碩士學程</t>
   </si>
   <si>
     <t>行管碩</t>
   </si>
   <si>
+    <t>923 地政學系碩士在職專班</t>
+  </si>
+  <si>
     <t>地碩在</t>
+  </si>
+  <si>
+    <t>926 亞太研究英語碩士學位學程</t>
   </si>
   <si>
     <t>亞太碩</t>
   </si>
   <si>
-    <t>應社碩</t>
+    <t>266 應用經濟與社會發展英語碩士學位學程</t>
   </si>
   <si>
-    <t>原專班</t>
-  </si>
-  <si>
-    <t>科系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡稱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>108年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序欄</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>院均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>200 社會科學學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>202 政治學系</t>
-  </si>
-  <si>
-    <t>204 社會學系</t>
-  </si>
-  <si>
-    <t>205 財政學系</t>
-  </si>
-  <si>
-    <t>206 公共行政學系</t>
-  </si>
-  <si>
-    <t>207 地政學系</t>
-  </si>
-  <si>
-    <t>208 經濟學系</t>
-  </si>
-  <si>
-    <t>209 民族學系</t>
-  </si>
-  <si>
-    <t>261 國家發展研究所</t>
-  </si>
-  <si>
-    <t>262 勞工研究所</t>
-  </si>
-  <si>
-    <t>264 社會工作研究所</t>
-  </si>
-  <si>
-    <t>265 亞太研究英語博士學位學程</t>
-  </si>
-  <si>
-    <t>921 行政管理碩士學程</t>
-  </si>
-  <si>
-    <t>923 地政學系碩士在職專班</t>
-  </si>
-  <si>
-    <t>926 亞太研究英語碩士學位學程</t>
-  </si>
-  <si>
-    <t>266 應用經濟與社會發展英語碩士學位學程</t>
+    <t>應社碩</t>
   </si>
   <si>
     <t>267 土地政策與環境規劃碩士原住民專班</t>
   </si>
   <si>
     <t>原專班</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>院加總</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>社科院</t>
   </si>
   <si>
     <t>1.1.1.1</t>
@@ -236,21 +196,102 @@
     <t>舉辦國際學術研討會數</t>
   </si>
   <si>
-    <t>-</t>
+    <t>科系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>無資料。</t>
+    <t>簡稱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>108年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序欄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>院均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>原專班</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>小結 3</t>
+  </si>
+  <si>
+    <t>小結 2</t>
+  </si>
+  <si>
+    <t>小結 1</t>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為38,437，高於院三年均值者計有4個系，為經濟系48,577、民族系42,762、社會系42,733、公行系38,702。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為3.23，低於院三年均值者計有5個系，為經濟系2.31、財政系2.32、應社碩2.38、行管碩3.04、地政系3.07。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為7.48%，低於院三年均值者計有3個系，為政治系3.57%、公行系5.19%、社會系7%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為19.84%，高於院三年均值者計有4個系，為社會系50%、國發所47.37%、公行系37.5%、政治系36.36%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為9.77，高於院三年均值者計有7個系，為經濟系18.22、地政系14.15、財政系14.01、勞工所13.2、社工所10.31、原專班10.17、公行系9.9。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總三年均值為1，包含地政系0.67、政治系0.33。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總三年均值為4，包含政治系1.67、民族系1、公行系0.67、勞工所0.33。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00%;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;&quot;—&quot;;&quot;—&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
+    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
+    <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -433,7 +474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,15 +509,27 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="3" xr:uid="{355064D4-21FE-4C9A-B4EE-8B08260DD4FA}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{B98EC577-8183-4A08-8079-21E4BFE2B5D0}"/>
-    <cellStyle name="百分比 2" xfId="4" xr:uid="{40E79167-0E29-46DB-BB9A-92BE1874B10F}"/>
+    <cellStyle name="一般 2" xfId="3" xr:uid="{ECA54145-2941-40CA-B838-4DF5EBD2C681}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{048E78A2-82B0-40FB-A622-1B72D2649044}"/>
+    <cellStyle name="百分比 2" xfId="4" xr:uid="{5A55F7F9-358A-4BC4-9613-6BB2508C8F1F}"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -556,8 +609,29 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -567,17 +641,38 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="###%;###%;0%">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6600000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7100000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6177-485B-937F-EC4E6533D8D0}"/>
+              <c16:uniqueId val="{00000000-4CB0-46CA-83D0-079C93F7F375}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -614,8 +709,29 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -625,17 +741,38 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.1200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="###%;###%;0%">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0899999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4399999999999994E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6177-485B-937F-EC4E6533D8D0}"/>
+              <c16:uniqueId val="{00000001-4CB0-46CA-83D0-079C93F7F375}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -672,8 +809,29 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -683,17 +841,38 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.61E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4299999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2900000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6177-485B-937F-EC4E6533D8D0}"/>
+              <c16:uniqueId val="{00000002-4CB0-46CA-83D0-079C93F7F375}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -808,7 +987,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6177-485B-937F-EC4E6533D8D0}"/>
+                  <c16:uniqueId val="{00000003-4CB0-46CA-83D0-079C93F7F375}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -886,8 +1065,29 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -897,10 +1097,31 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.5700000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="###%;###%;0%">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5700000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1391</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4800000000000005E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,7 +1129,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6177-485B-937F-EC4E6533D8D0}"/>
+              <c16:uniqueId val="{00000004-4CB0-46CA-83D0-079C93F7F375}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1008,7 +1229,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1191,8 +1412,38 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>亞太博</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1202,17 +1453,47 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.66669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="###.##%;\-###.##%;0%">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.17649999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-83DC-4FD5-AEA2-6DB57EB1A54A}"/>
+              <c16:uniqueId val="{00000000-61D6-438B-AACF-B249D8EDF56C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1249,8 +1530,38 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>亞太博</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1260,17 +1571,47 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.33329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="###.##%;\-###.##%;0%">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.33329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.1389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-83DC-4FD5-AEA2-6DB57EB1A54A}"/>
+              <c16:uniqueId val="{00000001-61D6-438B-AACF-B249D8EDF56C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1307,8 +1648,38 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>亞太博</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1318,17 +1689,47 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="###%;###%;0%">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="###%;###%;0%">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="###%;###%;0%">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28210000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-83DC-4FD5-AEA2-6DB57EB1A54A}"/>
+              <c16:uniqueId val="{00000002-61D6-438B-AACF-B249D8EDF56C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1443,7 +1844,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-83DC-4FD5-AEA2-6DB57EB1A54A}"/>
+                  <c16:uniqueId val="{00000003-61D6-438B-AACF-B249D8EDF56C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1521,8 +1922,38 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>亞太博</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1532,10 +1963,40 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="###%;###%;0%">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19839999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1543,7 +2004,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-83DC-4FD5-AEA2-6DB57EB1A54A}"/>
+              <c16:uniqueId val="{00000004-61D6-438B-AACF-B249D8EDF56C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1643,7 +2104,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1826,8 +2287,56 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>亞太博</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>行管碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>地碩在</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>亞太碩</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>應社碩</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>原專班</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1837,17 +2346,65 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>60528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34214</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35715</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44251.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1EF3-47C8-8E40-0FC839E78AEF}"/>
+              <c16:uniqueId val="{00000000-EFCC-41FB-89B8-7AA9E2D37CF2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1884,8 +2441,56 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>亞太博</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>行管碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>地碩在</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>亞太碩</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>應社碩</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>原專班</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1895,17 +2500,65 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>38555.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33180.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34895.629999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32413.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32957.980000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30415.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21155.74</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31851.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1EF3-47C8-8E40-0FC839E78AEF}"/>
+              <c16:uniqueId val="{00000001-EFCC-41FB-89B8-7AA9E2D37CF2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1942,8 +2595,56 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>亞太博</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>行管碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>地碩在</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>亞太碩</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>應社碩</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>原專班</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1953,17 +2654,65 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>47582.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40782.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46888.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43941.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32691.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25851.21</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40493.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1EF3-47C8-8E40-0FC839E78AEF}"/>
+              <c16:uniqueId val="{00000002-EFCC-41FB-89B8-7AA9E2D37CF2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2078,7 +2827,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1EF3-47C8-8E40-0FC839E78AEF}"/>
+                  <c16:uniqueId val="{00000003-EFCC-41FB-89B8-7AA9E2D37CF2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2156,8 +2905,56 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>亞太博</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>行管碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>地碩在</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>亞太碩</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>應社碩</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>原專班</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2167,10 +2964,58 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>48577.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42762.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42732.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38701.660000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37097.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31970.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26570.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38436.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2178,7 +3023,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1EF3-47C8-8E40-0FC839E78AEF}"/>
+              <c16:uniqueId val="{00000004-EFCC-41FB-89B8-7AA9E2D37CF2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2278,7 +3123,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2461,8 +3306,47 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應社碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>行管碩</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>亞太碩</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2472,17 +3356,56 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,###;#,###;0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-735C-4136-B667-0DA542B7D599}"/>
+              <c16:uniqueId val="{00000000-0F19-4653-9A11-948B441DD909}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2519,8 +3442,47 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應社碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>行管碩</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>亞太碩</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2530,17 +3492,56 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,###;#,###;0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,###;#,###;0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-735C-4136-B667-0DA542B7D599}"/>
+              <c16:uniqueId val="{00000001-0F19-4653-9A11-948B441DD909}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2577,8 +3578,47 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應社碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>行管碩</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>亞太碩</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2588,17 +3628,56 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-735C-4136-B667-0DA542B7D599}"/>
+              <c16:uniqueId val="{00000002-0F19-4653-9A11-948B441DD909}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2713,7 +3792,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-735C-4136-B667-0DA542B7D599}"/>
+                  <c16:uniqueId val="{00000003-0F19-4653-9A11-948B441DD909}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2791,8 +3870,47 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>應社碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>行管碩</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>亞太碩</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2802,10 +3920,49 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2813,7 +3970,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-735C-4136-B667-0DA542B7D599}"/>
+              <c16:uniqueId val="{00000004-0F19-4653-9A11-948B441DD909}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2913,7 +4070,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3096,8 +4253,50 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>原專班</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>亞太碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>應社碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>亞太博</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3107,17 +4306,59 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>20.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.55</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,###;#,###;0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.8800000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7D86-42E2-8043-EE254D180FE6}"/>
+              <c16:uniqueId val="{00000000-996F-4636-BB78-8251C80E542E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3154,8 +4395,50 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>原專班</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>亞太碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>應社碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>亞太博</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3165,17 +4448,59 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>16.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.27</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,###;#,###;0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.52</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7D86-42E2-8043-EE254D180FE6}"/>
+              <c16:uniqueId val="{00000001-996F-4636-BB78-8251C80E542E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3212,8 +4537,50 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>原專班</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>亞太碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>應社碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>亞太博</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3223,17 +4590,59 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>18.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9499999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7D86-42E2-8043-EE254D180FE6}"/>
+              <c16:uniqueId val="{00000002-996F-4636-BB78-8251C80E542E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3348,7 +4757,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-7D86-42E2-8043-EE254D180FE6}"/>
+                  <c16:uniqueId val="{00000003-996F-4636-BB78-8251C80E542E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3426,8 +4835,50 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>原專班</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>亞太碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>應社碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>亞太博</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3437,10 +4888,52 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>18.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.87</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3448,7 +4941,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7D86-42E2-8043-EE254D180FE6}"/>
+              <c16:uniqueId val="{00000004-996F-4636-BB78-8251C80E542E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3548,7 +5041,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3731,8 +5224,41 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>原專班</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3742,17 +5268,50 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="#,###;#,###;0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,###;#,###;0">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5CBA-4CB6-87B5-2E115035EDDC}"/>
+              <c16:uniqueId val="{00000000-F9C5-4991-863A-937495050F45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3789,8 +5348,41 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>原專班</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3800,9 +5392,42 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3810,7 +5435,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5CBA-4CB6-87B5-2E115035EDDC}"/>
+              <c16:uniqueId val="{00000001-F9C5-4991-863A-937495050F45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3847,8 +5472,41 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>原專班</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3858,17 +5516,50 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5CBA-4CB6-87B5-2E115035EDDC}"/>
+              <c16:uniqueId val="{00000002-F9C5-4991-863A-937495050F45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3983,7 +5674,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5CBA-4CB6-87B5-2E115035EDDC}"/>
+                  <c16:uniqueId val="{00000003-F9C5-4991-863A-937495050F45}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4061,8 +5752,41 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>地政系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>社會系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>財政系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>經濟系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國發所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>社工所</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>原專班</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4072,10 +5796,43 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4083,7 +5840,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5CBA-4CB6-87B5-2E115035EDDC}"/>
+              <c16:uniqueId val="{00000004-F9C5-4991-863A-937495050F45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4183,7 +5940,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4366,8 +6123,20 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4377,17 +6146,29 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5188-4D48-8843-F6199B48F666}"/>
+              <c16:uniqueId val="{00000000-9EA2-4B14-A69B-A42901EF9599}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4424,8 +6205,20 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4435,17 +6228,29 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5188-4D48-8843-F6199B48F666}"/>
+              <c16:uniqueId val="{00000001-9EA2-4B14-A69B-A42901EF9599}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4482,8 +6287,20 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4493,9 +6310,21 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4503,7 +6332,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5188-4D48-8843-F6199B48F666}"/>
+              <c16:uniqueId val="{00000002-9EA2-4B14-A69B-A42901EF9599}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4618,7 +6447,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5188-4D48-8843-F6199B48F666}"/>
+                  <c16:uniqueId val="{00000003-9EA2-4B14-A69B-A42901EF9599}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4696,8 +6525,20 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>政治系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>民族系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>公行系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>勞工所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4707,10 +6548,22 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4718,7 +6571,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5188-4D48-8843-F6199B48F666}"/>
+              <c16:uniqueId val="{00000004-9EA2-4B14-A69B-A42901EF9599}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4818,7 +6671,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4947,7 +6800,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE11966-7E1F-492A-9F2B-7B68F48DBC25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A9F212-FD9E-461B-BBE1-5C8FB4560E41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4980,7 +6833,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F4191A-778E-46AE-869E-66ECAD8EEE6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB2044F-7D47-44E3-A3CB-23A2F5363467}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5013,7 +6866,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C39E0EC-4D7D-4A22-9B57-54528DFD26B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCEED60-5CBF-43BA-9F3C-E38AF9B97A54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5046,7 +6899,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F9DC9B-EE39-447B-87FB-ECAB80724AE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B154571A-0C76-40FF-BE6A-38CB6856A626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5079,7 +6932,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A89A62-9D66-46E9-A4F0-5A9260D719C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5C36C7-B04E-465A-89CB-2B7D1904FBC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5112,7 +6965,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DF1BE8-0081-48C6-953F-80A6C8274D31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54564A7-4F2F-4718-AD1D-64F500DD4E02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5145,7 +6998,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13019A56-23FA-4CA5-9649-3DA9B2C7F6B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4554CB4D-2874-4DD0-8BC4-8C5C0202983D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5472,7 +7325,7 @@
 </file>
 
 <file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{92F772BD-E2FE-40A0-8BF6-41C064FE4262}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{EEE878A4-07C6-4C51-9E83-EDD0A74DC91C}">
   <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
   <we:alternateReferences>
     <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
@@ -5484,9 +7337,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D422FF4D-9442-4AF9-BC11-866E732F61EF}">
-  <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:R9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604951BE-0F9F-4961-9A2A-F70A5AF20313}">
+  <sheetPr codeName="工作表8"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5500,629 +7353,1135 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>3</v>
+      </c>
+      <c r="E3" s="12">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12">
+        <v>5</v>
+      </c>
+      <c r="H3" s="12">
+        <v>6</v>
+      </c>
+      <c r="I3" s="12">
+        <v>4</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="C4" s="12">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12">
+        <v>3</v>
+      </c>
+      <c r="G4" s="12">
+        <v>6</v>
+      </c>
+      <c r="H4" s="12">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12">
+        <v>5</v>
+      </c>
+      <c r="J4" s="12">
+        <v>2</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="12">
+        <v>6</v>
+      </c>
+      <c r="M4" s="12">
+        <v>9</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="C5" s="12">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12">
+        <v>7</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12">
+        <v>2</v>
+      </c>
+      <c r="J5" s="12">
+        <v>8</v>
+      </c>
+      <c r="K5" s="12">
+        <v>8</v>
+      </c>
+      <c r="L5" s="12">
+        <v>8</v>
+      </c>
+      <c r="M5" s="12">
+        <v>8</v>
+      </c>
+      <c r="N5" s="12">
+        <v>8</v>
+      </c>
+      <c r="O5" s="12">
+        <v>8</v>
+      </c>
+      <c r="P5" s="12">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>8</v>
+      </c>
+      <c r="R5" s="12">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="C6" s="12">
+        <v>9</v>
+      </c>
+      <c r="D6" s="12">
+        <v>7</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12">
+        <v>5</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>11</v>
+      </c>
+      <c r="J6" s="12">
+        <v>7</v>
+      </c>
+      <c r="K6" s="12">
+        <v>12</v>
+      </c>
+      <c r="L6" s="12">
+        <v>13</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="12">
+        <v>4</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>3</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="12">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="E7" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="F7" s="12">
+        <v>4.75</v>
+      </c>
+      <c r="G7" s="12">
+        <v>5.25</v>
+      </c>
+      <c r="H7" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="I7" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="J7" s="12">
+        <v>5.67</v>
+      </c>
+      <c r="K7" s="12">
+        <v>10</v>
+      </c>
+      <c r="L7" s="12">
+        <v>9</v>
+      </c>
+      <c r="M7" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="N7" s="12">
+        <v>6</v>
+      </c>
+      <c r="O7" s="12">
+        <v>8</v>
+      </c>
+      <c r="P7" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="R7" s="12">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="C8" s="12">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12">
+        <v>8</v>
+      </c>
+      <c r="E8" s="12">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12">
+        <v>7</v>
+      </c>
+      <c r="G8" s="12">
+        <v>2</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>14</v>
+      </c>
+      <c r="J8" s="12">
+        <v>9</v>
+      </c>
+      <c r="K8" s="12">
+        <v>4</v>
+      </c>
+      <c r="L8" s="12">
+        <v>5</v>
+      </c>
+      <c r="M8" s="12">
+        <v>13</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>12</v>
+      </c>
+      <c r="R8" s="12">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12">
+        <v>3</v>
+      </c>
+      <c r="E9" s="12">
+        <v>3</v>
+      </c>
+      <c r="F9" s="12">
+        <v>3</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>3</v>
+      </c>
+      <c r="I9" s="12">
+        <v>3</v>
+      </c>
+      <c r="J9" s="12">
+        <v>3</v>
+      </c>
+      <c r="K9" s="12">
+        <v>3</v>
+      </c>
+      <c r="L9" s="12">
+        <v>3</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="12">
+        <v>5.43</v>
+      </c>
+      <c r="D10" s="12">
+        <v>4.07</v>
+      </c>
+      <c r="E10" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="F10" s="12">
+        <v>4.82</v>
+      </c>
+      <c r="G10" s="12">
+        <v>4.18</v>
+      </c>
+      <c r="H10" s="12">
+        <v>3.07</v>
+      </c>
+      <c r="I10" s="12">
+        <v>6.36</v>
+      </c>
+      <c r="J10" s="12">
+        <v>5.78</v>
+      </c>
+      <c r="K10" s="12">
+        <v>7.4</v>
+      </c>
+      <c r="L10" s="12">
+        <v>7.33</v>
+      </c>
+      <c r="M10" s="12">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="N10" s="12">
+        <v>6</v>
+      </c>
+      <c r="O10" s="12">
+        <v>8</v>
+      </c>
+      <c r="P10" s="12">
+        <v>7.75</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>7.12</v>
+      </c>
+      <c r="R10" s="12">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="12">
+        <v>3</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="12">
+        <v>2</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="12">
+        <v>4</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="12">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D12" s="12">
+        <v>4.07</v>
+      </c>
+      <c r="E12" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="F12" s="12">
+        <v>4.62</v>
+      </c>
+      <c r="G12" s="12">
+        <v>4.18</v>
+      </c>
+      <c r="H12" s="12">
+        <v>3.07</v>
+      </c>
+      <c r="I12" s="12">
+        <v>5.87</v>
+      </c>
+      <c r="J12" s="12">
+        <v>5.78</v>
+      </c>
+      <c r="K12" s="12">
+        <v>6.91</v>
+      </c>
+      <c r="L12" s="12">
+        <v>7.33</v>
+      </c>
+      <c r="M12" s="12">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="N12" s="12">
+        <v>6</v>
+      </c>
+      <c r="O12" s="12">
+        <v>8</v>
+      </c>
+      <c r="P12" s="12">
+        <v>7.75</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>7.12</v>
+      </c>
+      <c r="R12" s="12">
+        <v>6.25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{B6719BBF-E6E0-4D8E-8452-AFB6F0463E3F}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{C8286138-1D25-4235-8E23-12CA94FB195F}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{B92DD0C3-68B2-4703-93DD-5398AC362BDD}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{07039133-128C-4413-9203-54D8ED61079C}"/>
-    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{422ACF29-9AE8-45DE-BAF2-745ACE30698E}"/>
-    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{AC0C66A7-0058-411D-B5FF-5E428F584D76}"/>
-    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{CD88BDD6-250F-45CE-9F43-08CBC642C457}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{74FB909A-B0A2-4665-9F31-E7E9F5D64D89}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{B20BF31C-D4E3-4E5A-984B-D70D816C742B}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{B2FAC3D2-C428-430B-A2E8-7A7B9473A5B9}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{FF29A1A3-084E-42FF-BE7D-CD6E15026EDE}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{B707EC35-5A7C-46AA-AE26-AD2B08CC0AE1}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{B0986877-E410-404B-AE73-01EE3765CE47}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{DCB9FC44-A7CC-479E-B6BB-CE1B81414B77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36364312-1983-40B6-BA8A-DA7E949540A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1491C389-0480-4879-B76C-5C716BD8C2AF}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="4" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>58</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="13">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>3.61E-2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="F4" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="D6" s="13">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.1124</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="E7" s="13">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.1391</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.13730000000000001</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.112</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.1867</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="13">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="D9" s="13">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="E9" s="13">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="F9" s="13">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="G9" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
-      <sortCondition descending="1" ref="G1:G18"/>
+      <sortCondition ref="G1:G18"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6133,453 +8492,453 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7270ACAC-B00E-4D08-9DC6-D9EE363B0CBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20232A38-81F9-4C2C-8D8F-73C094572011}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.47370000000000001</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.1111</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.1111</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.1111</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="C10" s="13">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="D10" s="13">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.1389</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="G12" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
-      <sortCondition descending="1" ref="G1:G18"/>
+      <sortCondition ref="G1:G18"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6590,453 +8949,453 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72A2C8D-4531-410D-9784-4CF2A9E1F84B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A66064-F581-430C-BA56-D3DA31A306C9}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11">
+        <v>48577.4</v>
+      </c>
+      <c r="D2" s="11">
+        <v>47582.59</v>
+      </c>
+      <c r="E2" s="11">
+        <v>38555.25</v>
+      </c>
+      <c r="F2" s="11">
+        <v>60528</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11">
+        <v>42762.1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>40782.400000000001</v>
+      </c>
+      <c r="E3" s="11">
+        <v>33180.71</v>
+      </c>
+      <c r="F3" s="11">
+        <v>56183</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11">
+        <v>42732.79</v>
+      </c>
+      <c r="D4" s="11">
+        <v>45859</v>
+      </c>
+      <c r="E4" s="11">
+        <v>34895.629999999997</v>
+      </c>
+      <c r="F4" s="11">
+        <v>49388</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11">
+        <v>38701.660000000003</v>
+      </c>
+      <c r="D5" s="11">
+        <v>46888.46</v>
+      </c>
+      <c r="E5" s="11">
+        <v>32413.99</v>
+      </c>
+      <c r="F5" s="11">
+        <v>38888</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11">
+        <v>37097.97</v>
+      </c>
+      <c r="D6" s="11">
+        <v>43941.42</v>
+      </c>
+      <c r="E6" s="11">
+        <v>32957.980000000003</v>
+      </c>
+      <c r="F6" s="11">
+        <v>34214</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11">
+        <v>31970.43</v>
+      </c>
+      <c r="D7" s="11">
+        <v>32691.11</v>
+      </c>
+      <c r="E7" s="11">
+        <v>30415.599999999999</v>
+      </c>
+      <c r="F7" s="11">
+        <v>32922</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11">
+        <v>26570.37</v>
+      </c>
+      <c r="D8" s="11">
+        <v>25851.21</v>
+      </c>
+      <c r="E8" s="11">
+        <v>21155.74</v>
+      </c>
+      <c r="F8" s="11">
+        <v>35715</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="11">
+        <v>38436.97</v>
+      </c>
+      <c r="D18" s="11">
+        <v>40493.83</v>
+      </c>
+      <c r="E18" s="11">
+        <v>31851.49</v>
+      </c>
+      <c r="F18" s="11">
+        <v>44251.39</v>
+      </c>
+      <c r="G18" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
-      <sortCondition descending="1" ref="G1:G18"/>
+      <sortCondition ref="G1:G18"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7047,453 +9406,453 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573B09FD-8CF0-4595-873C-ECC761CDFC8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92E66D6-BEE8-4B7E-A996-732BF48D6093}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2.31</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2.29</v>
+      </c>
+      <c r="E2" s="15">
+        <v>2.41</v>
+      </c>
+      <c r="F2" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2.19</v>
+      </c>
+      <c r="E3" s="15">
+        <v>2.35</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="15">
+        <v>2.38</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E4" s="15">
+        <v>2.44</v>
+      </c>
+      <c r="F4" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="15">
+        <v>3.04</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2.99</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2.94</v>
+      </c>
+      <c r="F5" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="15">
+        <v>3.07</v>
+      </c>
+      <c r="D6" s="15">
+        <v>3.11</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2.8</v>
+      </c>
+      <c r="F6" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="15">
+        <v>3.59</v>
+      </c>
+      <c r="D7" s="15">
+        <v>3.71</v>
+      </c>
+      <c r="E7" s="15">
+        <v>3.13</v>
+      </c>
+      <c r="F7" s="16">
         <v>4</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="15">
+        <v>3.74</v>
+      </c>
+      <c r="D8" s="15">
+        <v>3.31</v>
+      </c>
+      <c r="E8" s="15">
+        <v>3.6</v>
+      </c>
+      <c r="F8" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C9" s="15">
+        <v>3.74</v>
+      </c>
+      <c r="D9" s="15">
+        <v>3.92</v>
+      </c>
+      <c r="E9" s="15">
+        <v>3.89</v>
+      </c>
+      <c r="F9" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="G9" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C10" s="15">
+        <v>3.89</v>
+      </c>
+      <c r="D10" s="15">
+        <v>4.08</v>
+      </c>
+      <c r="E10" s="15">
+        <v>3.69</v>
+      </c>
+      <c r="F10" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15">
+        <v>3.91</v>
+      </c>
+      <c r="D11" s="15">
+        <v>3.54</v>
+      </c>
+      <c r="E11" s="16">
+        <v>4</v>
+      </c>
+      <c r="F11" s="15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C12" s="15">
+        <v>4.33</v>
+      </c>
+      <c r="D12" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E12" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="F12" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="G12" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C13" s="15">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="D13" s="15">
+        <v>4.41</v>
+      </c>
+      <c r="E13" s="15">
+        <v>4.88</v>
+      </c>
+      <c r="F13" s="15">
+        <v>4.3</v>
+      </c>
+      <c r="G13" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C14" s="15">
+        <v>4.59</v>
+      </c>
+      <c r="D14" s="15">
+        <v>5.59</v>
+      </c>
+      <c r="E14" s="16">
+        <v>4</v>
+      </c>
+      <c r="F14" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="G14" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="C15" s="15">
+        <v>3.23</v>
+      </c>
+      <c r="D15" s="15">
+        <v>3.25</v>
+      </c>
+      <c r="E15" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="F15" s="15">
+        <v>3.32</v>
+      </c>
+      <c r="G15" s="9">
+        <v>999</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>58</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>58</v>
+        <v>27</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
-      <sortCondition descending="1" ref="G1:G18"/>
+      <sortCondition ref="G1:G18"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7504,453 +9863,453 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B33D6F7-3D2C-46D5-96C8-6A8E422F71C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B64364-268F-48ED-9D4D-F9078CF4C268}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="15">
+        <v>18.22</v>
+      </c>
+      <c r="D2" s="15">
+        <v>18.64</v>
+      </c>
+      <c r="E2" s="15">
+        <v>16.03</v>
+      </c>
+      <c r="F2" s="15">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="15">
+        <v>14.15</v>
+      </c>
+      <c r="D3" s="15">
+        <v>13.3</v>
+      </c>
+      <c r="E3" s="15">
+        <v>15.59</v>
+      </c>
+      <c r="F3" s="15">
+        <v>13.8</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="15">
+        <v>14.01</v>
+      </c>
+      <c r="D4" s="15">
+        <v>15.18</v>
+      </c>
+      <c r="E4" s="15">
+        <v>13.4</v>
+      </c>
+      <c r="F4" s="15">
+        <v>13.55</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="15">
+        <v>13.2</v>
+      </c>
+      <c r="D5" s="15">
+        <v>14.68</v>
+      </c>
+      <c r="E5" s="15">
+        <v>13.73</v>
+      </c>
+      <c r="F5" s="16">
+        <v>11</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="15">
+        <v>10.31</v>
+      </c>
+      <c r="D6" s="15">
+        <v>9.58</v>
+      </c>
+      <c r="E6" s="15">
+        <v>12.39</v>
+      </c>
+      <c r="F6" s="15">
+        <v>9.36</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="15">
+        <v>10.17</v>
+      </c>
+      <c r="D7" s="15">
+        <v>10.89</v>
+      </c>
+      <c r="E7" s="15">
+        <v>11.91</v>
+      </c>
+      <c r="F7" s="15">
+        <v>7.33</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="15">
+        <v>9.9</v>
+      </c>
+      <c r="D8" s="15">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="E8" s="15">
+        <v>8.77</v>
+      </c>
+      <c r="F8" s="15">
+        <v>11.06</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="D9" s="15">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="E9" s="15">
+        <v>8.35</v>
+      </c>
+      <c r="F9" s="15">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="15">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="D10" s="15">
+        <v>7.68</v>
+      </c>
+      <c r="E10" s="15">
+        <v>9.27</v>
+      </c>
+      <c r="F10" s="15">
+        <v>9.48</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="15">
+        <v>7.87</v>
+      </c>
+      <c r="D11" s="15">
+        <v>8.42</v>
+      </c>
+      <c r="E11" s="16">
+        <v>7</v>
+      </c>
+      <c r="F11" s="15">
+        <v>7.88</v>
+      </c>
+      <c r="G11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15">
+        <v>7.36</v>
+      </c>
+      <c r="D12" s="15">
+        <v>6.83</v>
+      </c>
+      <c r="E12" s="15">
+        <v>7.18</v>
+      </c>
+      <c r="F12" s="15">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="G12" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="15">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="D13" s="15">
+        <v>5.89</v>
+      </c>
+      <c r="E13" s="15">
+        <v>3.52</v>
+      </c>
+      <c r="F13" s="15">
+        <v>5.81</v>
+      </c>
+      <c r="G13" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="C14" s="15">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D14" s="15">
+        <v>4.8</v>
+      </c>
+      <c r="E14" s="15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F14" s="15">
+        <v>5.13</v>
+      </c>
+      <c r="G14" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="15">
+        <v>3.91</v>
+      </c>
+      <c r="D15" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="E15" s="15">
+        <v>3.32</v>
+      </c>
+      <c r="F15" s="15">
+        <v>3.97</v>
+      </c>
+      <c r="G15" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="15">
+        <v>9.77</v>
+      </c>
+      <c r="D16" s="15">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="E16" s="15">
+        <v>9.49</v>
+      </c>
+      <c r="F16" s="15">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="G16" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>58</v>
+        <v>25</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>58</v>
+        <v>27</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
-      <sortCondition descending="1" ref="G1:G18"/>
+      <sortCondition ref="G1:G18"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7961,453 +10320,454 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E94E9C-F80D-45FA-A83C-216DC3D44801}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB0372B-A0C9-4557-A35D-6E7CB83480E8}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>58</v>
+        <v>11</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16">
+        <v>2</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>2</v>
+      </c>
+      <c r="G13" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>58</v>
+        <v>23</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>58</v>
+        <v>25</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>58</v>
+        <v>27</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>58</v>
+        <v>29</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
-      <sortCondition descending="1" ref="G1:G18"/>
+      <sortCondition ref="G1:G18"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8418,453 +10778,454 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122309C7-DA40-4A4A-9FA6-293578B550B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3A376-02FD-4314-A00F-BFDB8EED184A}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>58</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1.67</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16">
+        <v>4</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>2</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="16">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>5</v>
+      </c>
+      <c r="F6" s="16">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>58</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>58</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>58</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>58</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>58</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>58</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>58</v>
+        <v>25</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>58</v>
+        <v>27</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>58</v>
+        <v>29</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
-      <sortCondition descending="1" ref="G1:G18"/>
+      <sortCondition ref="G1:G18"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/社會科學學院.xlsx
+++ b/test/1. 各院彙整資料/社會科學學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711EFE13-BEBD-4613-A380-483D4429E96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5B5C81-A36C-45F1-A5CB-399708BE20D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{99D4858D-58E9-4A37-8415-CB14913F8BEB}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{99D4858D-58E9-4A37-8415-CB14913F8BEB}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$18</definedName>
@@ -242,42 +242,34 @@
     <t>小結 3</t>
   </si>
   <si>
-    <t>小結 2</t>
+    <t>平均 1</t>
   </si>
   <si>
-    <t>小結 1</t>
+    <t>平均 2</t>
   </si>
   <si>
     <t>—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為7.48%，低於院三年均值者計有3個系，為政治系3.57%、公行系5.19%、社會系7%。</t>
+  </si>
+  <si>
+    <t>院三年均值為19.84%，高於院三年均值者計有4個系，為社會系50%、國發所47.37%、公行系37.5%、政治系36.36%。</t>
   </si>
   <si>
     <t>院三年均值為38,437，高於院三年均值者計有4個系，為經濟系48,577、民族系42,762、社會系42,733、公行系38,702。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為3.23，低於院三年均值者計有5個系，為經濟系2.31、財政系2.32、應社碩2.38、行管碩3.04、地政系3.07。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院三年均值為7.48%，低於院三年均值者計有3個系，為政治系3.57%、公行系5.19%、社會系7%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院三年均值為19.84%，高於院三年均值者計有4個系，為社會系50%、國發所47.37%、公行系37.5%、政治系36.36%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為9.77，高於院三年均值者計有7個系，為經濟系18.22、地政系14.15、財政系14.01、勞工所13.2、社工所10.31、原專班10.17、公行系9.9。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院加總三年均值為1，包含地政系0.67、政治系0.33。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院加總三年均值為4，包含政治系1.67、民族系1、公行系0.67、勞工所0.33。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -286,10 +278,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
-    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
-    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="177" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="178" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="179" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="180" formatCode="#,##0;\-#,###;0"/>
     <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
     <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
@@ -509,9 +501,6 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,6 +511,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,7 +664,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4CB0-46CA-83D0-079C93F7F375}"/>
+              <c16:uniqueId val="{00000000-2D74-4162-A558-B70FAB3925D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -772,7 +764,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4CB0-46CA-83D0-079C93F7F375}"/>
+              <c16:uniqueId val="{00000001-2D74-4162-A558-B70FAB3925D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -872,7 +864,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4CB0-46CA-83D0-079C93F7F375}"/>
+              <c16:uniqueId val="{00000002-2D74-4162-A558-B70FAB3925D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -930,7 +922,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="7"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -985,9 +977,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-4CB0-46CA-83D0-079C93F7F375}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1129,7 +1118,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4CB0-46CA-83D0-079C93F7F375}"/>
+              <c16:uniqueId val="{00000004-2D74-4162-A558-B70FAB3925D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1493,7 +1482,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-61D6-438B-AACF-B249D8EDF56C}"/>
+              <c16:uniqueId val="{00000000-AA18-4641-AF89-F859014A3EB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1611,7 +1600,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-61D6-438B-AACF-B249D8EDF56C}"/>
+              <c16:uniqueId val="{00000001-AA18-4641-AF89-F859014A3EB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1729,7 +1718,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-61D6-438B-AACF-B249D8EDF56C}"/>
+              <c16:uniqueId val="{00000002-AA18-4641-AF89-F859014A3EB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1787,7 +1776,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="10"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1842,9 +1831,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-61D6-438B-AACF-B249D8EDF56C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2004,7 +1990,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-61D6-438B-AACF-B249D8EDF56C}"/>
+              <c16:uniqueId val="{00000004-AA18-4641-AF89-F859014A3EB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2404,7 +2390,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EFCC-41FB-89B8-7AA9E2D37CF2}"/>
+              <c16:uniqueId val="{00000000-2CE4-493F-B7FF-9C3D45801553}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2558,7 +2544,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EFCC-41FB-89B8-7AA9E2D37CF2}"/>
+              <c16:uniqueId val="{00000001-2CE4-493F-B7FF-9C3D45801553}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2712,7 +2698,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EFCC-41FB-89B8-7AA9E2D37CF2}"/>
+              <c16:uniqueId val="{00000002-2CE4-493F-B7FF-9C3D45801553}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2770,7 +2756,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="16"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2825,9 +2811,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-EFCC-41FB-89B8-7AA9E2D37CF2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3023,7 +3006,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EFCC-41FB-89B8-7AA9E2D37CF2}"/>
+              <c16:uniqueId val="{00000004-2CE4-493F-B7FF-9C3D45801553}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3405,7 +3388,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0F19-4653-9A11-948B441DD909}"/>
+              <c16:uniqueId val="{00000000-104E-455A-ACDF-0B128069BA8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3541,7 +3524,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0F19-4653-9A11-948B441DD909}"/>
+              <c16:uniqueId val="{00000001-104E-455A-ACDF-0B128069BA8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3677,7 +3660,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0F19-4653-9A11-948B441DD909}"/>
+              <c16:uniqueId val="{00000002-104E-455A-ACDF-0B128069BA8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3735,7 +3718,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="13"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3790,9 +3773,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0F19-4653-9A11-948B441DD909}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3970,7 +3950,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0F19-4653-9A11-948B441DD909}"/>
+              <c16:uniqueId val="{00000004-104E-455A-ACDF-0B128069BA8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4358,7 +4338,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-996F-4636-BB78-8251C80E542E}"/>
+              <c16:uniqueId val="{00000000-FCE9-488C-9059-6240D0428949}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4500,7 +4480,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-996F-4636-BB78-8251C80E542E}"/>
+              <c16:uniqueId val="{00000001-FCE9-488C-9059-6240D0428949}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4642,7 +4622,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-996F-4636-BB78-8251C80E542E}"/>
+              <c16:uniqueId val="{00000002-FCE9-488C-9059-6240D0428949}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4700,7 +4680,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="14"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4755,9 +4735,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-996F-4636-BB78-8251C80E542E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4941,7 +4918,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-996F-4636-BB78-8251C80E542E}"/>
+              <c16:uniqueId val="{00000004-FCE9-488C-9059-6240D0428949}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5311,7 +5288,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F9C5-4991-863A-937495050F45}"/>
+              <c16:uniqueId val="{00000000-227C-45FD-8836-620416BC8BE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5435,7 +5412,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F9C5-4991-863A-937495050F45}"/>
+              <c16:uniqueId val="{00000001-227C-45FD-8836-620416BC8BE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5559,7 +5536,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F9C5-4991-863A-937495050F45}"/>
+              <c16:uniqueId val="{00000002-227C-45FD-8836-620416BC8BE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5617,7 +5594,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="11"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -5672,9 +5649,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F9C5-4991-863A-937495050F45}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5840,7 +5814,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F9C5-4991-863A-937495050F45}"/>
+              <c16:uniqueId val="{00000004-227C-45FD-8836-620416BC8BE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6168,7 +6142,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9EA2-4B14-A69B-A42901EF9599}"/>
+              <c16:uniqueId val="{00000000-C831-4F71-A9F7-4358F6E3F2F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6250,7 +6224,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9EA2-4B14-A69B-A42901EF9599}"/>
+              <c16:uniqueId val="{00000001-C831-4F71-A9F7-4358F6E3F2F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6332,7 +6306,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9EA2-4B14-A69B-A42901EF9599}"/>
+              <c16:uniqueId val="{00000002-C831-4F71-A9F7-4358F6E3F2F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6390,7 +6364,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="4"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -6445,9 +6419,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9EA2-4B14-A69B-A42901EF9599}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6571,7 +6542,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9EA2-4B14-A69B-A42901EF9599}"/>
+              <c16:uniqueId val="{00000004-C831-4F71-A9F7-4358F6E3F2F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6800,7 +6771,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A9F212-FD9E-461B-BBE1-5C8FB4560E41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AD24D4-E97F-4E01-8886-BC323AF024F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6833,7 +6804,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB2044F-7D47-44E3-A3CB-23A2F5363467}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C19C131-D9AE-4239-B643-212004BDABD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6866,7 +6837,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCEED60-5CBF-43BA-9F3C-E38AF9B97A54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFBDA9E-2856-4B08-88D5-76BE0DFDCDF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6899,7 +6870,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B154571A-0C76-40FF-BE6A-38CB6856A626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BD162CE-7AAC-4F61-B0EA-AD992F6A97B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6932,7 +6903,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5C36C7-B04E-465A-89CB-2B7D1904FBC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E33B6F6-282E-4A2B-801A-6FC0E0734756}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6965,7 +6936,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54564A7-4F2F-4718-AD1D-64F500DD4E02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57F022B5-C14A-43E3-A40A-83FF81EAB33E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6998,7 +6969,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4554CB4D-2874-4DD0-8BC4-8C5C0202983D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E66D933D-546E-43AD-AE75-3F326BD23E7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7464,52 +7435,52 @@
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="16">
         <v>3</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="16">
         <v>7</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="16">
         <v>2</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="16">
         <v>5</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="16">
         <v>6</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="16">
         <v>4</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="12" t="s">
+      <c r="J3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7520,52 +7491,52 @@
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="16">
         <v>4</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="16">
         <v>1</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="16">
         <v>10</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="16">
         <v>3</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="16">
         <v>6</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="16">
         <v>6</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="16">
         <v>5</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="16">
         <v>2</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="12">
+      <c r="K4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="16">
         <v>6</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="16">
         <v>9</v>
       </c>
-      <c r="N4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" s="12" t="s">
+      <c r="N4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7576,52 +7547,52 @@
       <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="16">
         <v>6</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="16">
         <v>3</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="16">
         <v>7</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="16">
         <v>4</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="16">
         <v>5</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="16">
         <v>1</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="16">
         <v>2</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="16">
         <v>8</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="16">
         <v>8</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="16">
         <v>8</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="16">
         <v>8</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="16">
         <v>8</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="16">
         <v>8</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="16">
         <v>8</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="16">
         <v>8</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="16">
         <v>8</v>
       </c>
     </row>
@@ -7632,52 +7603,52 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="16">
         <v>9</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="16">
         <v>7</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="16">
         <v>2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="16">
         <v>10</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="16">
         <v>5</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="16">
         <v>1</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="16">
         <v>11</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="16">
         <v>7</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="16">
         <v>12</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="16">
         <v>13</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="12">
+      <c r="M6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="16">
         <v>4</v>
       </c>
-      <c r="O6" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="12">
+      <c r="O6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="16">
         <v>6</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="16">
         <v>3</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7686,54 +7657,54 @@
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="12">
+        <v>60</v>
+      </c>
+      <c r="C7" s="16">
         <v>5</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="16">
         <v>3.5</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="16">
         <v>6.5</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="16">
         <v>4.75</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="16">
         <v>5.25</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="16">
         <v>3.5</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="16">
         <v>5.5</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="16">
         <v>5.67</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="16">
         <v>10</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="16">
         <v>9</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="16">
         <v>8.5</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="16">
         <v>6</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="16">
         <v>8</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="16">
         <v>7</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="16">
         <v>5.5</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="16">
         <v>8</v>
       </c>
     </row>
@@ -7744,52 +7715,52 @@
       <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="16">
         <v>11</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="16">
         <v>8</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="16">
         <v>3</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="16">
         <v>7</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="16">
         <v>2</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="16">
         <v>1</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="16">
         <v>14</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="16">
         <v>9</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="16">
         <v>4</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="16">
         <v>5</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="16">
         <v>13</v>
       </c>
-      <c r="N8" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" s="12">
+      <c r="N8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="16">
         <v>10</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="16">
         <v>12</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="16">
         <v>6</v>
       </c>
     </row>
@@ -7800,52 +7771,52 @@
       <c r="B9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="16">
         <v>2</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="16">
         <v>3</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="16">
         <v>3</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="16">
         <v>3</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="16">
         <v>1</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="16">
         <v>3</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="16">
         <v>3</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="16">
         <v>3</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="16">
         <v>3</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="16">
         <v>3</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="R9" s="12">
+      <c r="M9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="16">
         <v>3</v>
       </c>
     </row>
@@ -7854,54 +7825,54 @@
         <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="12">
+        <v>61</v>
+      </c>
+      <c r="C10" s="16">
         <v>5.43</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="16">
         <v>4.07</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="16">
         <v>5.5</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="16">
         <v>4.82</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="16">
         <v>4.18</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="16">
         <v>3.07</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="16">
         <v>6.36</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="16">
         <v>5.78</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="16">
         <v>7.4</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="16">
         <v>7.33</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="16">
         <v>9.6199999999999992</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="16">
         <v>6</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="16">
         <v>8</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="16">
         <v>7.75</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="16">
         <v>7.12</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="16">
         <v>6.25</v>
       </c>
     </row>
@@ -7912,52 +7883,52 @@
       <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="16">
         <v>1</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="D11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="16">
         <v>3</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="12">
+      <c r="G11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="16">
         <v>2</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="12">
+      <c r="J11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="16">
         <v>4</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="R11" s="12" t="s">
+      <c r="L11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7968,72 +7939,72 @@
       <c r="B12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="16">
         <v>4.9400000000000004</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="16">
         <v>4.07</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="16">
         <v>5.5</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="16">
         <v>4.62</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="16">
         <v>4.18</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="16">
         <v>3.07</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="16">
         <v>5.87</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="16">
         <v>5.78</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="16">
         <v>6.91</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="16">
         <v>7.33</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="16">
         <v>9.6199999999999992</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="16">
         <v>6</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="16">
         <v>8</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="16">
         <v>7.75</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="16">
         <v>7.12</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="16">
         <v>6.25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{74FB909A-B0A2-4665-9F31-E7E9F5D64D89}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{B20BF31C-D4E3-4E5A-984B-D70D816C742B}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{B2FAC3D2-C428-430B-A2E8-7A7B9473A5B9}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{FF29A1A3-084E-42FF-BE7D-CD6E15026EDE}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{B707EC35-5A7C-46AA-AE26-AD2B08CC0AE1}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{B0986877-E410-404B-AE73-01EE3765CE47}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{DCB9FC44-A7CC-479E-B6BB-CE1B81414B77}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{ECCE52A2-6BB6-4CD1-BEB1-5D3C5E8E614F}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{13AAF4C6-9EDB-4D04-AA5A-DD958CE60110}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{C7F852E6-0521-453C-BDB5-35025B5CFFF8}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{CF8B951B-9591-4E3E-A84D-56463D4FA6A8}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{779BB228-0925-4A36-872A-2B8E25D219F1}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{D095267E-004A-4C73-9802-1946316381EA}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{D08F211E-564C-4212-B08D-E60E0749AA80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1491C389-0480-4879-B76C-5C716BD8C2AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CB8563-EE18-49F1-B942-EA58AC7895EB}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -8045,9 +8016,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="4" width="7.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -8076,7 +8045,7 @@
         <v>54</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -8086,16 +8055,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>3.61E-2</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>3.1300000000000001E-2</v>
       </c>
       <c r="G2" s="9">
@@ -8109,16 +8078,16 @@
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="G3" s="9">
@@ -8132,16 +8101,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>8.2400000000000001E-2</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>6.0900000000000003E-2</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G4" s="9">
@@ -8155,16 +8124,16 @@
       <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>0.1</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>6.0600000000000001E-2</v>
       </c>
       <c r="G5" s="9">
@@ -8178,16 +8147,16 @@
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>6.4299999999999996E-2</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>8.4400000000000003E-2</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>9.6600000000000005E-2</v>
       </c>
       <c r="G6" s="9">
@@ -8201,16 +8170,16 @@
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>0.1124</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>0.12870000000000001</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <v>0.12620000000000001</v>
       </c>
       <c r="G7" s="9">
@@ -8224,16 +8193,16 @@
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>0.1391</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>0.13730000000000001</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <v>0.112</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <v>0.1867</v>
       </c>
       <c r="G8" s="9">
@@ -8247,16 +8216,16 @@
       <c r="B9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <v>7.7100000000000002E-2</v>
       </c>
       <c r="G9" s="9">
@@ -8270,16 +8239,16 @@
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -8293,16 +8262,16 @@
       <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -8316,16 +8285,16 @@
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -8339,16 +8308,16 @@
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -8362,16 +8331,16 @@
       <c r="B14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -8385,16 +8354,16 @@
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="C15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="9" t="s">
@@ -8408,16 +8377,16 @@
       <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="9" t="s">
@@ -8431,16 +8400,16 @@
       <c r="B17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="C17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G17" s="9" t="s">
@@ -8454,16 +8423,16 @@
       <c r="B18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="C18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -8481,7 +8450,7 @@
       <sortCondition ref="G1:G18"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8492,7 +8461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20232A38-81F9-4C2C-8D8F-73C094572011}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6547FD-EE56-45E3-BC9C-EAAF1451A466}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -8533,7 +8502,7 @@
         <v>54</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -8543,16 +8512,16 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="11">
         <v>0.5</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="11">
         <v>0.5</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>0.33329999999999999</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>0.66669999999999996</v>
       </c>
       <c r="G2" s="9">
@@ -8566,16 +8535,16 @@
       <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>0.47370000000000001</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>0.57140000000000002</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <v>0.75</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="11">
         <v>0.25</v>
       </c>
       <c r="G3" s="9">
@@ -8589,16 +8558,16 @@
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>0.375</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <v>0.5</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>0</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>0.4</v>
       </c>
       <c r="G4" s="9">
@@ -8612,16 +8581,16 @@
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>0.36359999999999998</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>0.33329999999999999</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>0.33329999999999999</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="11">
         <v>0.4</v>
       </c>
       <c r="G5" s="9">
@@ -8635,16 +8604,16 @@
       <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>0.16669999999999999</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>0</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <v>0.5</v>
       </c>
       <c r="G6" s="9">
@@ -8658,16 +8627,16 @@
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>0.1111</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <v>0.5</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <v>0</v>
       </c>
       <c r="G7" s="9">
@@ -8681,16 +8650,16 @@
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>0.1111</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>0.33329999999999999</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <v>0</v>
       </c>
       <c r="G8" s="9">
@@ -8704,16 +8673,16 @@
       <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>0.1111</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>0.33329999999999999</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>0</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <v>0</v>
       </c>
       <c r="G9" s="9">
@@ -8727,16 +8696,16 @@
       <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>0</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>0</v>
       </c>
       <c r="G10" s="9">
@@ -8750,16 +8719,16 @@
       <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <v>0</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>0</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="E11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="10">
         <v>0</v>
       </c>
       <c r="G11" s="9">
@@ -8773,16 +8742,16 @@
       <c r="B12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <v>0.19839999999999999</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <v>0.28210000000000002</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>0.1389</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="10">
         <v>0.17649999999999999</v>
       </c>
       <c r="G12" s="9">
@@ -8796,16 +8765,16 @@
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -8819,16 +8788,16 @@
       <c r="B14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -8842,16 +8811,16 @@
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="C15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="9" t="s">
@@ -8865,16 +8834,16 @@
       <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="9" t="s">
@@ -8888,16 +8857,16 @@
       <c r="B17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="C17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G17" s="9" t="s">
@@ -8911,16 +8880,16 @@
       <c r="B18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="C18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -8938,7 +8907,7 @@
       <sortCondition ref="G1:G18"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8949,7 +8918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A66064-F581-430C-BA56-D3DA31A306C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D52FE1C-BDE3-4B0E-A2ED-84820028B3F1}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -8961,7 +8930,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -8990,7 +8959,7 @@
         <v>54</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -9000,16 +8969,16 @@
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="13">
         <v>48577.4</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="13">
         <v>47582.59</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="13">
         <v>38555.25</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="13">
         <v>60528</v>
       </c>
       <c r="G2" s="9">
@@ -9023,16 +8992,16 @@
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>42762.1</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="13">
         <v>40782.400000000001</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="13">
         <v>33180.71</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="13">
         <v>56183</v>
       </c>
       <c r="G3" s="9">
@@ -9046,16 +9015,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>42732.79</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <v>45859</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="13">
         <v>34895.629999999997</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="13">
         <v>49388</v>
       </c>
       <c r="G4" s="9">
@@ -9069,16 +9038,16 @@
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <v>38701.660000000003</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>46888.46</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="13">
         <v>32413.99</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="13">
         <v>38888</v>
       </c>
       <c r="G5" s="9">
@@ -9092,16 +9061,16 @@
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="13">
         <v>37097.97</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="13">
         <v>43941.42</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="13">
         <v>32957.980000000003</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="13">
         <v>34214</v>
       </c>
       <c r="G6" s="9">
@@ -9115,16 +9084,16 @@
       <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="13">
         <v>31970.43</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <v>32691.11</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="13">
         <v>30415.599999999999</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <v>32922</v>
       </c>
       <c r="G7" s="9">
@@ -9138,16 +9107,16 @@
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="13">
         <v>26570.37</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="13">
         <v>25851.21</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="13">
         <v>21155.74</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="13">
         <v>35715</v>
       </c>
       <c r="G8" s="9">
@@ -9161,16 +9130,16 @@
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="13">
         <v>0</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="D9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="9">
@@ -9184,16 +9153,16 @@
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="13">
         <v>0</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="D10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="9">
@@ -9207,16 +9176,16 @@
       <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="13">
         <v>0</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="D11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="9">
@@ -9230,16 +9199,16 @@
       <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="13">
         <v>0</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="D12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G12" s="9">
@@ -9253,16 +9222,16 @@
       <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="13">
         <v>0</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="D13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G13" s="9">
@@ -9276,16 +9245,16 @@
       <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="13">
         <v>0</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="D14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="9">
@@ -9299,16 +9268,16 @@
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="13">
         <v>0</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="D15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="9">
@@ -9322,16 +9291,16 @@
       <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="13">
         <v>0</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="D16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="9">
@@ -9345,16 +9314,16 @@
       <c r="B17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="13">
         <v>0</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="D17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G17" s="9">
@@ -9368,16 +9337,16 @@
       <c r="B18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="13">
         <v>38436.97</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="13">
         <v>40493.83</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="13">
         <v>31851.49</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="13">
         <v>44251.39</v>
       </c>
       <c r="G18" s="9">
@@ -9406,7 +9375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92E66D6-BEE8-4B7E-A996-732BF48D6093}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02073A58-2398-475C-88C5-BFAA4AB278E4}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -9418,7 +9387,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -9447,7 +9416,7 @@
         <v>54</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -9457,16 +9426,16 @@
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>2.31</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>2.29</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>2.41</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>2.2000000000000002</v>
       </c>
       <c r="G2" s="9">
@@ -9480,16 +9449,16 @@
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>2.3199999999999998</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>2.19</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>2.35</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>2.4</v>
       </c>
       <c r="G3" s="9">
@@ -9503,16 +9472,16 @@
       <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>2.38</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>2.44</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>2.4</v>
       </c>
       <c r="G4" s="9">
@@ -9526,16 +9495,16 @@
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>3.04</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>2.99</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>2.94</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>3.2</v>
       </c>
       <c r="G5" s="9">
@@ -9549,16 +9518,16 @@
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>3.07</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>3.11</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>2.8</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>3.3</v>
       </c>
       <c r="G6" s="9">
@@ -9572,16 +9541,16 @@
       <c r="B7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>3.59</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>3.71</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>3.13</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>4</v>
       </c>
       <c r="G7" s="9">
@@ -9595,16 +9564,16 @@
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>3.74</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>3.31</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>3.6</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>4.5</v>
       </c>
       <c r="G8" s="9">
@@ -9618,16 +9587,16 @@
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>3.74</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>3.92</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>3.89</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>3.5</v>
       </c>
       <c r="G9" s="9">
@@ -9641,16 +9610,16 @@
       <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>3.89</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>4.08</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>3.69</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>3.9</v>
       </c>
       <c r="G10" s="9">
@@ -9664,16 +9633,16 @@
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>3.91</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>3.54</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>4</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>4.0999999999999996</v>
       </c>
       <c r="G11" s="9">
@@ -9687,16 +9656,16 @@
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>4.33</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>3.5</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>4.5</v>
       </c>
       <c r="G12" s="9">
@@ -9710,16 +9679,16 @@
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>4.4800000000000004</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>4.41</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>4.88</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>4.3</v>
       </c>
       <c r="G13" s="9">
@@ -9733,16 +9702,16 @@
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>4.59</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>5.59</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>4</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <v>3.9</v>
       </c>
       <c r="G14" s="9">
@@ -9756,16 +9725,16 @@
       <c r="B15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>3.23</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>3.25</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>3.1</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <v>3.32</v>
       </c>
       <c r="G15" s="9">
@@ -9779,16 +9748,16 @@
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="9" t="s">
@@ -9802,16 +9771,16 @@
       <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="C17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G17" s="9" t="s">
@@ -9825,16 +9794,16 @@
       <c r="B18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="C18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -9852,7 +9821,7 @@
       <sortCondition ref="G1:G18"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9863,7 +9832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B64364-268F-48ED-9D4D-F9078CF4C268}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BC22C1-7A2C-4B65-8DD1-FCFF06558514}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -9875,7 +9844,8 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="6" width="9.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -9914,16 +9884,16 @@
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>18.22</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>18.64</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>16.03</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>20.309999999999999</v>
       </c>
       <c r="G2" s="9">
@@ -9937,16 +9907,16 @@
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>14.15</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>13.3</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>15.59</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>13.8</v>
       </c>
       <c r="G3" s="9">
@@ -9960,16 +9930,16 @@
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>14.01</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>15.18</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>13.4</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>13.55</v>
       </c>
       <c r="G4" s="9">
@@ -9983,16 +9953,16 @@
       <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>13.2</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>14.68</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>13.73</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>11</v>
       </c>
       <c r="G5" s="9">
@@ -10006,16 +9976,16 @@
       <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>10.31</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>9.58</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>12.39</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>9.36</v>
       </c>
       <c r="G6" s="9">
@@ -10029,16 +9999,16 @@
       <c r="B7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>10.17</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>10.89</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>11.91</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>7.33</v>
       </c>
       <c r="G7" s="9">
@@ -10052,16 +10022,16 @@
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>9.9</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>9.7899999999999991</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>8.77</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>11.06</v>
       </c>
       <c r="G8" s="9">
@@ -10075,16 +10045,16 @@
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>8.8699999999999992</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>9.7799999999999994</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>8.35</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>8.6999999999999993</v>
       </c>
       <c r="G9" s="9">
@@ -10098,16 +10068,16 @@
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>8.7899999999999991</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>7.68</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>9.27</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>9.48</v>
       </c>
       <c r="G10" s="9">
@@ -10121,16 +10091,16 @@
       <c r="B11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>7.87</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>8.42</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>7</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>7.88</v>
       </c>
       <c r="G11" s="9">
@@ -10144,16 +10114,16 @@
       <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>7.36</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>6.83</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>7.18</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>8.1199999999999992</v>
       </c>
       <c r="G12" s="9">
@@ -10167,16 +10137,16 @@
       <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>5.0599999999999996</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>5.89</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>3.52</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>5.81</v>
       </c>
       <c r="G13" s="9">
@@ -10190,16 +10160,16 @@
       <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>4.8099999999999996</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>4.8</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <v>5.13</v>
       </c>
       <c r="G14" s="9">
@@ -10213,16 +10183,16 @@
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>3.91</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>4.5</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>3.32</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <v>3.97</v>
       </c>
       <c r="G15" s="9">
@@ -10236,16 +10206,16 @@
       <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>9.77</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>9.9499999999999993</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>9.49</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <v>9.8800000000000008</v>
       </c>
       <c r="G16" s="9">
@@ -10259,16 +10229,16 @@
       <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="C17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G17" s="9" t="s">
@@ -10282,16 +10252,16 @@
       <c r="B18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="C18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -10309,7 +10279,7 @@
       <sortCondition ref="G1:G18"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10320,7 +10290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB0372B-A0C9-4557-A35D-6E7CB83480E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704E7504-45D6-4CE1-B965-A5AF22A03257}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -10332,8 +10302,9 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -10372,16 +10343,16 @@
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>0.67</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>0</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>0</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>2</v>
       </c>
       <c r="G2" s="9">
@@ -10395,16 +10366,16 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>0.33</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>1</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>0</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>0</v>
       </c>
       <c r="G3" s="9">
@@ -10418,16 +10389,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>0</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>0</v>
       </c>
       <c r="G4" s="9">
@@ -10441,16 +10412,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>0</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>0</v>
       </c>
       <c r="G5" s="9">
@@ -10464,16 +10435,16 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>0</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>0</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>0</v>
       </c>
       <c r="G6" s="9">
@@ -10487,16 +10458,16 @@
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>0</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>0</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>0</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>0</v>
       </c>
       <c r="G7" s="9">
@@ -10510,16 +10481,16 @@
       <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>0</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>0</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>0</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>0</v>
       </c>
       <c r="G8" s="9">
@@ -10533,16 +10504,16 @@
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>0</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>0</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>0</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>0</v>
       </c>
       <c r="G9" s="9">
@@ -10556,16 +10527,16 @@
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>0</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>0</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>0</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>0</v>
       </c>
       <c r="G10" s="9">
@@ -10579,16 +10550,16 @@
       <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>0</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>0</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>0</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>0</v>
       </c>
       <c r="G11" s="9">
@@ -10602,16 +10573,16 @@
       <c r="B12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>0</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>0</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>0</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>0</v>
       </c>
       <c r="G12" s="9">
@@ -10625,16 +10596,16 @@
       <c r="B13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>1</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>1</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>0</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>2</v>
       </c>
       <c r="G13" s="9">
@@ -10648,16 +10619,16 @@
       <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -10671,16 +10642,16 @@
       <c r="B15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="C15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="9" t="s">
@@ -10694,16 +10665,16 @@
       <c r="B16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="9" t="s">
@@ -10717,16 +10688,16 @@
       <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="C17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G17" s="9" t="s">
@@ -10740,16 +10711,16 @@
       <c r="B18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="C18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -10767,7 +10738,7 @@
       <sortCondition ref="G1:G18"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10778,7 +10749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3A376-02FD-4314-A00F-BFDB8EED184A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF2A51A-AA68-464E-A619-B05A41CF2A69}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -10790,8 +10761,9 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="3.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -10830,16 +10802,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>1.67</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>0</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>4</v>
       </c>
       <c r="G2" s="9">
@@ -10853,16 +10825,16 @@
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>1</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>2</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>1</v>
       </c>
       <c r="G3" s="9">
@@ -10876,16 +10848,16 @@
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>0.67</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>0</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>1</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>1</v>
       </c>
       <c r="G4" s="9">
@@ -10899,16 +10871,16 @@
       <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>0.33</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>0</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>1</v>
       </c>
       <c r="G5" s="9">
@@ -10922,16 +10894,16 @@
       <c r="B6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>4</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>0</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>5</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>7</v>
       </c>
       <c r="G6" s="9">
@@ -10945,16 +10917,16 @@
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -10968,16 +10940,16 @@
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -10991,16 +10963,16 @@
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -11014,16 +10986,16 @@
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -11037,16 +11009,16 @@
       <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -11060,16 +11032,16 @@
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -11083,16 +11055,16 @@
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -11106,16 +11078,16 @@
       <c r="B14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -11129,16 +11101,16 @@
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="C15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="9" t="s">
@@ -11152,16 +11124,16 @@
       <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="9" t="s">
@@ -11175,16 +11147,16 @@
       <c r="B17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="C17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G17" s="9" t="s">
@@ -11198,16 +11170,16 @@
       <c r="B18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="C18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -11225,7 +11197,7 @@
       <sortCondition ref="G1:G18"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/社會科學學院.xlsx
+++ b/test/1. 各院彙整資料/社會科學學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5B5C81-A36C-45F1-A5CB-399708BE20D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A75BE61-D2C7-48EE-93D5-BA3DC3E94E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{99D4858D-58E9-4A37-8415-CB14913F8BEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{99D4858D-58E9-4A37-8415-CB14913F8BEB}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="114" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="115" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="116" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="117" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="118" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="119" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="120" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$18</definedName>
@@ -664,7 +664,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D74-4162-A558-B70FAB3925D7}"/>
+              <c16:uniqueId val="{00000000-9D65-4446-A263-64370056F389}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -764,7 +764,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2D74-4162-A558-B70FAB3925D7}"/>
+              <c16:uniqueId val="{00000001-9D65-4446-A263-64370056F389}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -864,7 +864,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2D74-4162-A558-B70FAB3925D7}"/>
+              <c16:uniqueId val="{00000002-9D65-4446-A263-64370056F389}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1118,7 +1118,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2D74-4162-A558-B70FAB3925D7}"/>
+              <c16:uniqueId val="{00000004-9D65-4446-A263-64370056F389}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1482,7 +1482,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AA18-4641-AF89-F859014A3EB8}"/>
+              <c16:uniqueId val="{00000000-343E-4340-90E1-B380E390F2EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1600,7 +1600,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AA18-4641-AF89-F859014A3EB8}"/>
+              <c16:uniqueId val="{00000001-343E-4340-90E1-B380E390F2EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1718,7 +1718,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AA18-4641-AF89-F859014A3EB8}"/>
+              <c16:uniqueId val="{00000002-343E-4340-90E1-B380E390F2EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1990,7 +1990,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AA18-4641-AF89-F859014A3EB8}"/>
+              <c16:uniqueId val="{00000004-343E-4340-90E1-B380E390F2EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2390,7 +2390,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2CE4-493F-B7FF-9C3D45801553}"/>
+              <c16:uniqueId val="{00000000-0C10-4B70-94AB-23CB1D16487F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2544,7 +2544,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2CE4-493F-B7FF-9C3D45801553}"/>
+              <c16:uniqueId val="{00000001-0C10-4B70-94AB-23CB1D16487F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2698,7 +2698,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2CE4-493F-B7FF-9C3D45801553}"/>
+              <c16:uniqueId val="{00000002-0C10-4B70-94AB-23CB1D16487F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3006,7 +3006,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2CE4-493F-B7FF-9C3D45801553}"/>
+              <c16:uniqueId val="{00000004-0C10-4B70-94AB-23CB1D16487F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3388,7 +3388,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-104E-455A-ACDF-0B128069BA8E}"/>
+              <c16:uniqueId val="{00000000-EC9D-41A2-8B19-C82C16F79C32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3524,7 +3524,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-104E-455A-ACDF-0B128069BA8E}"/>
+              <c16:uniqueId val="{00000001-EC9D-41A2-8B19-C82C16F79C32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3660,7 +3660,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-104E-455A-ACDF-0B128069BA8E}"/>
+              <c16:uniqueId val="{00000002-EC9D-41A2-8B19-C82C16F79C32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3950,7 +3950,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-104E-455A-ACDF-0B128069BA8E}"/>
+              <c16:uniqueId val="{00000004-EC9D-41A2-8B19-C82C16F79C32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4338,7 +4338,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FCE9-488C-9059-6240D0428949}"/>
+              <c16:uniqueId val="{00000000-AB1A-4FC9-A207-858569C7EA5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4480,7 +4480,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FCE9-488C-9059-6240D0428949}"/>
+              <c16:uniqueId val="{00000001-AB1A-4FC9-A207-858569C7EA5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4622,7 +4622,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FCE9-488C-9059-6240D0428949}"/>
+              <c16:uniqueId val="{00000002-AB1A-4FC9-A207-858569C7EA5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4918,7 +4918,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FCE9-488C-9059-6240D0428949}"/>
+              <c16:uniqueId val="{00000004-AB1A-4FC9-A207-858569C7EA5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5288,7 +5288,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-227C-45FD-8836-620416BC8BE2}"/>
+              <c16:uniqueId val="{00000000-390D-41AE-B24D-9C11384AE5E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5412,7 +5412,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-227C-45FD-8836-620416BC8BE2}"/>
+              <c16:uniqueId val="{00000001-390D-41AE-B24D-9C11384AE5E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5536,7 +5536,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-227C-45FD-8836-620416BC8BE2}"/>
+              <c16:uniqueId val="{00000002-390D-41AE-B24D-9C11384AE5E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5814,7 +5814,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-227C-45FD-8836-620416BC8BE2}"/>
+              <c16:uniqueId val="{00000004-390D-41AE-B24D-9C11384AE5E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6142,7 +6142,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C831-4F71-A9F7-4358F6E3F2F3}"/>
+              <c16:uniqueId val="{00000000-753A-49B6-9900-A7F6C0A7D0CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6224,7 +6224,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C831-4F71-A9F7-4358F6E3F2F3}"/>
+              <c16:uniqueId val="{00000001-753A-49B6-9900-A7F6C0A7D0CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6306,7 +6306,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C831-4F71-A9F7-4358F6E3F2F3}"/>
+              <c16:uniqueId val="{00000002-753A-49B6-9900-A7F6C0A7D0CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6542,7 +6542,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C831-4F71-A9F7-4358F6E3F2F3}"/>
+              <c16:uniqueId val="{00000004-753A-49B6-9900-A7F6C0A7D0CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6771,7 +6771,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AD24D4-E97F-4E01-8886-BC323AF024F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515769A0-57D0-4A7C-850B-EDC422E90B57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6804,7 +6804,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C19C131-D9AE-4239-B643-212004BDABD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FE2E58-EA7B-49B0-B51B-9EEC406233FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6837,7 +6837,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFBDA9E-2856-4B08-88D5-76BE0DFDCDF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7D16A5-B4C8-44AB-8C5A-351360ACA902}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6870,7 +6870,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BD162CE-7AAC-4F61-B0EA-AD992F6A97B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B765218E-713D-4F70-A28C-BFC87742F97F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6903,7 +6903,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E33B6F6-282E-4A2B-801A-6FC0E0734756}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A410A110-7B82-42DA-A57C-E1DE43074EBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6936,7 +6936,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57F022B5-C14A-43E3-A40A-83FF81EAB33E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89876B9F-2B49-4F7A-88D9-BB8D5DF1F080}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6969,7 +6969,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E66D933D-546E-43AD-AE75-3F326BD23E7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E384FF-9BDF-4DDB-9D72-E77D3BF011F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7991,22 +7991,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{ECCE52A2-6BB6-4CD1-BEB1-5D3C5E8E614F}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{13AAF4C6-9EDB-4D04-AA5A-DD958CE60110}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{C7F852E6-0521-453C-BDB5-35025B5CFFF8}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{CF8B951B-9591-4E3E-A84D-56463D4FA6A8}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{779BB228-0925-4A36-872A-2B8E25D219F1}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{D095267E-004A-4C73-9802-1946316381EA}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{D08F211E-564C-4212-B08D-E60E0749AA80}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{F8050F19-C159-4236-AC82-7E9CC58F5A47}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{C9C56EB0-A453-4A7A-9875-5DF781BF93B8}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{3AAE54C0-4709-4110-9586-97E678D19161}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{2FA46CB5-A2B8-4EFB-96A6-4A51BCD32F16}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{455A1843-24D6-4DBF-8FEA-86011D777FFC}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{1EF0BF3B-0E08-4A1C-A8D1-26743E7AD5BB}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{FC258A51-99CC-4D46-BAC0-7036E5D69903}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CB8563-EE18-49F1-B942-EA58AC7895EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4FF142-0B62-4D3D-83A8-ABB09DA20DD0}">
   <sheetPr codeName="工作表1" filterMode="1"/>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8022,7 +8022,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -8044,11 +8044,11 @@
       <c r="G1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -8461,9 +8461,9 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6547FD-EE56-45E3-BC9C-EAAF1451A466}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383AC268-5864-4A14-B3D8-6CC6225CD3DB}">
   <sheetPr codeName="工作表2" filterMode="1"/>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8479,7 +8479,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -8501,11 +8501,11 @@
       <c r="G1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -8918,9 +8918,9 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D52FE1C-BDE3-4B0E-A2ED-84820028B3F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C76E15-498F-46E4-A975-057C45033E93}">
   <sheetPr codeName="工作表3" filterMode="1"/>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8936,7 +8936,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -8958,11 +8958,11 @@
       <c r="G1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
@@ -9375,9 +9375,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02073A58-2398-475C-88C5-BFAA4AB278E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502FC768-512E-4AB0-B5D9-22AB7CA9016A}">
   <sheetPr codeName="工作表4" filterMode="1"/>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -9393,7 +9393,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -9415,11 +9415,11 @@
       <c r="G1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -9832,9 +9832,9 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BC22C1-7A2C-4B65-8DD1-FCFF06558514}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C62D1-FB03-4AEF-9A5E-4A4BEE66CE07}">
   <sheetPr codeName="工作表5" filterMode="1"/>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -9851,7 +9851,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -9873,11 +9873,11 @@
       <c r="G1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>2</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
@@ -10290,9 +10290,9 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704E7504-45D6-4CE1-B965-A5AF22A03257}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C848EE62-C09D-481C-BE50-959B9D814978}">
   <sheetPr codeName="工作表6" filterMode="1"/>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -10310,7 +10310,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -10332,11 +10332,11 @@
       <c r="G1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
@@ -10749,9 +10749,9 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF2A51A-AA68-464E-A619-B05A41CF2A69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01395F82-AE8B-4AA1-BA83-5B82746CE8FE}">
   <sheetPr codeName="工作表7" filterMode="1"/>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -10769,7 +10769,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -10791,11 +10791,11 @@
       <c r="G1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
